--- a/excel/finished/焦化/CK67-配煤报表设计1107.xlsx
+++ b/excel/finished/焦化/CK67-配煤报表设计1107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="749" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="749"/>
   </bookViews>
   <sheets>
     <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
@@ -13,92 +13,23 @@
     <sheet name="备注_煤种分类" sheetId="40" r:id="rId4"/>
     <sheet name="_auto_shift_all" sheetId="41" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428">
   <si>
     <t xml:space="preserve">                    焦化分厂焦炉配煤自动配煤操作记录       </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">年  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">月  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 日          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 班                编号：SGSSG-BSMCSA35-G001-02A</t>
-    </r>
+    <t>白 班</t>
+  </si>
+  <si>
+    <t>编号：SGSSG-BSMCSA35-G001-02A</t>
   </si>
   <si>
     <t>筒    仓</t>
@@ -1520,13 +1451,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1660,9 +1592,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1677,84 +1631,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1773,19 +1660,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1804,6 +1697,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="7"/>
       <color indexed="30"/>
       <name val="Arial"/>
@@ -1813,12 +1745,6 @@
       <sz val="7"/>
       <color indexed="63"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1856,31 +1782,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,61 +1842,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,7 +1878,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1976,61 +1938,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2371,26 +2297,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2419,11 +2336,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2438,46 +2394,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2486,138 +2412,138 @@
     <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2766,6 +2692,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2838,6 +2767,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2921,6 +2853,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3215,8 +3160,8 @@
   </sheetPr>
   <dimension ref="B1:W66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:T27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3235,1489 +3180,1494 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="2:23">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="53" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="91"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="93"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B4" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="92"/>
+      <c r="C4" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="94"/>
     </row>
     <row r="5" ht="18.75" spans="2:22">
-      <c r="B5" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="D5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="E5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="F5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="G5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="I5" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="J5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="K5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="L5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="M5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="N5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="O5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="P5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="Q5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="60" t="s">
+      <c r="R5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="93" t="s">
+      <c r="S5" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="94"/>
+      <c r="T5" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="96"/>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="61" t="str">
+      <c r="B6" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="62" t="str">
         <f>IF(_auto_shift_all!A2="","",_auto_shift_all!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="61" t="str">
+      <c r="D6" s="62" t="str">
         <f>IF(_auto_shift_all!B2="","",_auto_shift_all!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="61" t="str">
+      <c r="E6" s="62" t="str">
         <f>IF(_auto_shift_all!C2="","",_auto_shift_all!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="61" t="str">
+      <c r="F6" s="62" t="str">
         <f>IF(_auto_shift_all!D2="","",_auto_shift_all!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="61" t="str">
+      <c r="G6" s="62" t="str">
         <f>IF(_auto_shift_all!E2="","",_auto_shift_all!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="61" t="str">
+      <c r="H6" s="62" t="str">
         <f>IF(_auto_shift_all!F2="","",_auto_shift_all!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="61" t="str">
+      <c r="I6" s="62" t="str">
         <f>IF(_auto_shift_all!G2="","",_auto_shift_all!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="61" t="str">
+      <c r="J6" s="62" t="str">
         <f>IF(_auto_shift_all!H2="","",_auto_shift_all!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="61" t="str">
+      <c r="K6" s="62" t="str">
         <f>IF(_auto_shift_all!I2="","",_auto_shift_all!I2)</f>
         <v/>
       </c>
-      <c r="L6" s="61" t="str">
+      <c r="L6" s="62" t="str">
         <f>IF(_auto_shift_all!J2="","",_auto_shift_all!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="61" t="str">
+      <c r="M6" s="62" t="str">
         <f>IF(_auto_shift_all!K2="","",_auto_shift_all!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="61" t="str">
+      <c r="N6" s="62" t="str">
         <f>IF(_auto_shift_all!L2="","",_auto_shift_all!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="61" t="str">
+      <c r="O6" s="62" t="str">
         <f>IF(_auto_shift_all!M2="","",_auto_shift_all!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="61" t="str">
+      <c r="P6" s="62" t="str">
         <f>IF(_auto_shift_all!N2="","",_auto_shift_all!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="61" t="str">
+      <c r="Q6" s="62" t="str">
         <f>IF(_auto_shift_all!O2="","",_auto_shift_all!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="61" t="str">
+      <c r="R6" s="62" t="str">
         <f>IF(_auto_shift_all!P2="","",_auto_shift_all!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="61" t="str">
+      <c r="S6" s="62" t="str">
         <f>IF(_auto_shift_all!Q2="","",_auto_shift_all!Q2)</f>
         <v/>
       </c>
-      <c r="T6" s="61" t="str">
+      <c r="T6" s="62" t="str">
         <f>IF(_auto_shift_all!R2="","",_auto_shift_all!R2)</f>
         <v/>
       </c>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="61" t="str">
+      <c r="B7" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="62" t="str">
         <f>IF(_auto_shift_all!A4="","",_auto_shift_all!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="61" t="str">
+      <c r="D7" s="62" t="str">
         <f>IF(_auto_shift_all!B4="","",_auto_shift_all!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="63" t="str">
+      <c r="E7" s="64" t="str">
         <f>IF(_auto_shift_all!C4="","",_auto_shift_all!C4)</f>
         <v/>
       </c>
-      <c r="F7" s="61" t="str">
+      <c r="F7" s="62" t="str">
         <f>IF(_auto_shift_all!D4="","",_auto_shift_all!D4)</f>
         <v/>
       </c>
-      <c r="G7" s="61" t="str">
+      <c r="G7" s="62" t="str">
         <f>IF(_auto_shift_all!E4="","",_auto_shift_all!E4)</f>
         <v/>
       </c>
-      <c r="H7" s="61" t="str">
+      <c r="H7" s="62" t="str">
         <f>IF(_auto_shift_all!F4="","",_auto_shift_all!F4)</f>
         <v/>
       </c>
-      <c r="I7" s="61" t="str">
+      <c r="I7" s="62" t="str">
         <f>IF(_auto_shift_all!G4="","",_auto_shift_all!G4)</f>
         <v/>
       </c>
-      <c r="J7" s="61" t="str">
+      <c r="J7" s="62" t="str">
         <f>IF(_auto_shift_all!H4="","",_auto_shift_all!H4)</f>
         <v/>
       </c>
-      <c r="K7" s="61" t="str">
+      <c r="K7" s="62" t="str">
         <f>IF(_auto_shift_all!I4="","",_auto_shift_all!I4)</f>
         <v/>
       </c>
-      <c r="L7" s="61" t="str">
+      <c r="L7" s="62" t="str">
         <f>IF(_auto_shift_all!J4="","",_auto_shift_all!J4)</f>
         <v/>
       </c>
-      <c r="M7" s="61" t="str">
+      <c r="M7" s="62" t="str">
         <f>IF(_auto_shift_all!K4="","",_auto_shift_all!K4)</f>
         <v/>
       </c>
-      <c r="N7" s="61" t="str">
+      <c r="N7" s="62" t="str">
         <f>IF(_auto_shift_all!L4="","",_auto_shift_all!L4)</f>
         <v/>
       </c>
-      <c r="O7" s="61" t="str">
+      <c r="O7" s="62" t="str">
         <f>IF(_auto_shift_all!M4="","",_auto_shift_all!M4)</f>
         <v/>
       </c>
-      <c r="P7" s="61" t="str">
+      <c r="P7" s="62" t="str">
         <f>IF(_auto_shift_all!N4="","",_auto_shift_all!N4)</f>
         <v/>
       </c>
-      <c r="Q7" s="61" t="str">
+      <c r="Q7" s="62" t="str">
         <f>IF(_auto_shift_all!O4="","",_auto_shift_all!O4)</f>
         <v/>
       </c>
-      <c r="R7" s="61" t="str">
+      <c r="R7" s="62" t="str">
         <f>IF(_auto_shift_all!P4="","",_auto_shift_all!P4)</f>
         <v/>
       </c>
-      <c r="S7" s="61" t="str">
+      <c r="S7" s="62" t="str">
         <f>IF(_auto_shift_all!Q4="","",_auto_shift_all!Q4)</f>
         <v/>
       </c>
-      <c r="T7" s="61" t="str">
+      <c r="T7" s="62" t="str">
         <f>IF(_auto_shift_all!R4="","",_auto_shift_all!R4)</f>
         <v/>
       </c>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="61" t="str">
+      <c r="B8" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="62" t="str">
         <f>IF(_auto_shift_all!A6="","",_auto_shift_all!A6)</f>
         <v/>
       </c>
-      <c r="D8" s="61" t="str">
+      <c r="D8" s="62" t="str">
         <f>IF(_auto_shift_all!B6="","",_auto_shift_all!B6)</f>
         <v/>
       </c>
-      <c r="E8" s="63" t="str">
+      <c r="E8" s="64" t="str">
         <f>IF(_auto_shift_all!C6="","",_auto_shift_all!C6)</f>
         <v/>
       </c>
-      <c r="F8" s="61" t="str">
+      <c r="F8" s="62" t="str">
         <f>IF(_auto_shift_all!D6="","",_auto_shift_all!D6)</f>
         <v/>
       </c>
-      <c r="G8" s="61" t="str">
+      <c r="G8" s="62" t="str">
         <f>IF(_auto_shift_all!E6="","",_auto_shift_all!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="61" t="str">
+      <c r="H8" s="62" t="str">
         <f>IF(_auto_shift_all!F6="","",_auto_shift_all!F6)</f>
         <v/>
       </c>
-      <c r="I8" s="61" t="str">
+      <c r="I8" s="62" t="str">
         <f>IF(_auto_shift_all!G6="","",_auto_shift_all!G6)</f>
         <v/>
       </c>
-      <c r="J8" s="61" t="str">
+      <c r="J8" s="62" t="str">
         <f>IF(_auto_shift_all!H6="","",_auto_shift_all!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="61" t="str">
+      <c r="K8" s="62" t="str">
         <f>IF(_auto_shift_all!I6="","",_auto_shift_all!I6)</f>
         <v/>
       </c>
-      <c r="L8" s="61" t="str">
+      <c r="L8" s="62" t="str">
         <f>IF(_auto_shift_all!J6="","",_auto_shift_all!J6)</f>
         <v/>
       </c>
-      <c r="M8" s="61" t="str">
+      <c r="M8" s="62" t="str">
         <f>IF(_auto_shift_all!K6="","",_auto_shift_all!K6)</f>
         <v/>
       </c>
-      <c r="N8" s="61" t="str">
+      <c r="N8" s="62" t="str">
         <f>IF(_auto_shift_all!L6="","",_auto_shift_all!L6)</f>
         <v/>
       </c>
-      <c r="O8" s="61" t="str">
+      <c r="O8" s="62" t="str">
         <f>IF(_auto_shift_all!M6="","",_auto_shift_all!M6)</f>
         <v/>
       </c>
-      <c r="P8" s="61" t="str">
+      <c r="P8" s="62" t="str">
         <f>IF(_auto_shift_all!N6="","",_auto_shift_all!N6)</f>
         <v/>
       </c>
-      <c r="Q8" s="61" t="str">
+      <c r="Q8" s="62" t="str">
         <f>IF(_auto_shift_all!O6="","",_auto_shift_all!O6)</f>
         <v/>
       </c>
-      <c r="R8" s="61" t="str">
+      <c r="R8" s="62" t="str">
         <f>IF(_auto_shift_all!P6="","",_auto_shift_all!P6)</f>
         <v/>
       </c>
-      <c r="S8" s="61" t="str">
+      <c r="S8" s="62" t="str">
         <f>IF(_auto_shift_all!Q6="","",_auto_shift_all!Q6)</f>
         <v/>
       </c>
-      <c r="T8" s="61" t="str">
+      <c r="T8" s="62" t="str">
         <f>IF(_auto_shift_all!R6="","",_auto_shift_all!R6)</f>
         <v/>
       </c>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="61" t="str">
+      <c r="B9" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="62" t="str">
         <f>IF(_auto_shift_all!A8="","",_auto_shift_all!A8)</f>
         <v/>
       </c>
-      <c r="D9" s="61" t="str">
+      <c r="D9" s="62" t="str">
         <f>IF(_auto_shift_all!B8="","",_auto_shift_all!B8)</f>
         <v/>
       </c>
-      <c r="E9" s="61" t="str">
+      <c r="E9" s="62" t="str">
         <f>IF(_auto_shift_all!C8="","",_auto_shift_all!C8)</f>
         <v/>
       </c>
-      <c r="F9" s="61" t="str">
+      <c r="F9" s="62" t="str">
         <f>IF(_auto_shift_all!D8="","",_auto_shift_all!D8)</f>
         <v/>
       </c>
-      <c r="G9" s="61" t="str">
+      <c r="G9" s="62" t="str">
         <f>IF(_auto_shift_all!E8="","",_auto_shift_all!E8)</f>
         <v/>
       </c>
-      <c r="H9" s="61" t="str">
+      <c r="H9" s="62" t="str">
         <f>IF(_auto_shift_all!F8="","",_auto_shift_all!F8)</f>
         <v/>
       </c>
-      <c r="I9" s="61" t="str">
+      <c r="I9" s="62" t="str">
         <f>IF(_auto_shift_all!G8="","",_auto_shift_all!G8)</f>
         <v/>
       </c>
-      <c r="J9" s="61" t="str">
+      <c r="J9" s="62" t="str">
         <f>IF(_auto_shift_all!H8="","",_auto_shift_all!H8)</f>
         <v/>
       </c>
-      <c r="K9" s="61" t="str">
+      <c r="K9" s="62" t="str">
         <f>IF(_auto_shift_all!I8="","",_auto_shift_all!I8)</f>
         <v/>
       </c>
-      <c r="L9" s="61" t="str">
+      <c r="L9" s="62" t="str">
         <f>IF(_auto_shift_all!J8="","",_auto_shift_all!J8)</f>
         <v/>
       </c>
-      <c r="M9" s="61" t="str">
+      <c r="M9" s="62" t="str">
         <f>IF(_auto_shift_all!K8="","",_auto_shift_all!K8)</f>
         <v/>
       </c>
-      <c r="N9" s="61" t="str">
+      <c r="N9" s="62" t="str">
         <f>IF(_auto_shift_all!L8="","",_auto_shift_all!L8)</f>
         <v/>
       </c>
-      <c r="O9" s="61" t="str">
+      <c r="O9" s="62" t="str">
         <f>IF(_auto_shift_all!M8="","",_auto_shift_all!M8)</f>
         <v/>
       </c>
-      <c r="P9" s="61" t="str">
+      <c r="P9" s="62" t="str">
         <f>IF(_auto_shift_all!N8="","",_auto_shift_all!N8)</f>
         <v/>
       </c>
-      <c r="Q9" s="61" t="str">
+      <c r="Q9" s="62" t="str">
         <f>IF(_auto_shift_all!O8="","",_auto_shift_all!O8)</f>
         <v/>
       </c>
-      <c r="R9" s="61" t="str">
+      <c r="R9" s="62" t="str">
         <f>IF(_auto_shift_all!P8="","",_auto_shift_all!P8)</f>
         <v/>
       </c>
-      <c r="S9" s="61" t="str">
+      <c r="S9" s="62" t="str">
         <f>IF(_auto_shift_all!Q8="","",_auto_shift_all!Q8)</f>
         <v/>
       </c>
-      <c r="T9" s="61" t="str">
+      <c r="T9" s="62" t="str">
         <f>IF(_auto_shift_all!R8="","",_auto_shift_all!R8)</f>
         <v/>
       </c>
       <c r="V9" s="1"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B10" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="65">
+      <c r="B10" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="66">
         <f>SUM(D9:I9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69">
         <f>SUM(J9:O9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="68">
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="69">
         <f>SUM(P9:U9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="71"/>
     </row>
     <row r="11" ht="18.75" spans="2:22">
-      <c r="B11" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="93"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" ht="18.75" spans="2:22">
+      <c r="B12" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="94"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" ht="18.75" spans="2:22">
+      <c r="B13" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="62" t="str">
+        <f>IF(_auto_shift_all!A10="","",_auto_shift_all!A10)</f>
+        <v/>
+      </c>
+      <c r="D14" s="62" t="str">
+        <f>IF(_auto_shift_all!B10="","",_auto_shift_all!B10)</f>
+        <v/>
+      </c>
+      <c r="E14" s="62" t="str">
+        <f>IF(_auto_shift_all!C10="","",_auto_shift_all!C10)</f>
+        <v/>
+      </c>
+      <c r="F14" s="62" t="str">
+        <f>IF(_auto_shift_all!D10="","",_auto_shift_all!D10)</f>
+        <v/>
+      </c>
+      <c r="G14" s="62" t="str">
+        <f>IF(_auto_shift_all!E10="","",_auto_shift_all!E10)</f>
+        <v/>
+      </c>
+      <c r="H14" s="62" t="str">
+        <f>IF(_auto_shift_all!F10="","",_auto_shift_all!F10)</f>
+        <v/>
+      </c>
+      <c r="I14" s="62" t="str">
+        <f>IF(_auto_shift_all!G10="","",_auto_shift_all!G10)</f>
+        <v/>
+      </c>
+      <c r="J14" s="62" t="str">
+        <f>IF(_auto_shift_all!H10="","",_auto_shift_all!H10)</f>
+        <v/>
+      </c>
+      <c r="K14" s="62" t="str">
+        <f>IF(_auto_shift_all!I10="","",_auto_shift_all!I10)</f>
+        <v/>
+      </c>
+      <c r="L14" s="62" t="str">
+        <f>IF(_auto_shift_all!J10="","",_auto_shift_all!J10)</f>
+        <v/>
+      </c>
+      <c r="M14" s="62" t="str">
+        <f>IF(_auto_shift_all!K10="","",_auto_shift_all!K10)</f>
+        <v/>
+      </c>
+      <c r="N14" s="62" t="str">
+        <f>IF(_auto_shift_all!L10="","",_auto_shift_all!L10)</f>
+        <v/>
+      </c>
+      <c r="O14" s="62" t="str">
+        <f>IF(_auto_shift_all!M10="","",_auto_shift_all!M10)</f>
+        <v/>
+      </c>
+      <c r="P14" s="62" t="str">
+        <f>IF(_auto_shift_all!N10="","",_auto_shift_all!N10)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="62" t="str">
+        <f>IF(_auto_shift_all!O10="","",_auto_shift_all!O10)</f>
+        <v/>
+      </c>
+      <c r="R14" s="62" t="str">
+        <f>IF(_auto_shift_all!P10="","",_auto_shift_all!P10)</f>
+        <v/>
+      </c>
+      <c r="S14" s="62" t="str">
+        <f>IF(_auto_shift_all!Q10="","",_auto_shift_all!Q10)</f>
+        <v/>
+      </c>
+      <c r="T14" s="62" t="str">
+        <f>IF(_auto_shift_all!R10="","",_auto_shift_all!R10)</f>
+        <v/>
+      </c>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="62" t="str">
+        <f>IF(_auto_shift_all!A12="","",_auto_shift_all!A12)</f>
+        <v/>
+      </c>
+      <c r="D15" s="62" t="str">
+        <f>IF(_auto_shift_all!B12="","",_auto_shift_all!B12)</f>
+        <v/>
+      </c>
+      <c r="E15" s="62" t="str">
+        <f>IF(_auto_shift_all!C12="","",_auto_shift_all!C12)</f>
+        <v/>
+      </c>
+      <c r="F15" s="62" t="str">
+        <f>IF(_auto_shift_all!D12="","",_auto_shift_all!D12)</f>
+        <v/>
+      </c>
+      <c r="G15" s="62" t="str">
+        <f>IF(_auto_shift_all!E12="","",_auto_shift_all!E12)</f>
+        <v/>
+      </c>
+      <c r="H15" s="62" t="str">
+        <f>IF(_auto_shift_all!F12="","",_auto_shift_all!F12)</f>
+        <v/>
+      </c>
+      <c r="I15" s="62" t="str">
+        <f>IF(_auto_shift_all!G12="","",_auto_shift_all!G12)</f>
+        <v/>
+      </c>
+      <c r="J15" s="62" t="str">
+        <f>IF(_auto_shift_all!H12="","",_auto_shift_all!H12)</f>
+        <v/>
+      </c>
+      <c r="K15" s="62" t="str">
+        <f>IF(_auto_shift_all!I12="","",_auto_shift_all!I12)</f>
+        <v/>
+      </c>
+      <c r="L15" s="62" t="str">
+        <f>IF(_auto_shift_all!J12="","",_auto_shift_all!J12)</f>
+        <v/>
+      </c>
+      <c r="M15" s="62" t="str">
+        <f>IF(_auto_shift_all!K12="","",_auto_shift_all!K12)</f>
+        <v/>
+      </c>
+      <c r="N15" s="62" t="str">
+        <f>IF(_auto_shift_all!L12="","",_auto_shift_all!L12)</f>
+        <v/>
+      </c>
+      <c r="O15" s="62" t="str">
+        <f>IF(_auto_shift_all!M12="","",_auto_shift_all!M12)</f>
+        <v/>
+      </c>
+      <c r="P15" s="62" t="str">
+        <f>IF(_auto_shift_all!N12="","",_auto_shift_all!N12)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="62" t="str">
+        <f>IF(_auto_shift_all!O12="","",_auto_shift_all!O12)</f>
+        <v/>
+      </c>
+      <c r="R15" s="62" t="str">
+        <f>IF(_auto_shift_all!P12="","",_auto_shift_all!P12)</f>
+        <v/>
+      </c>
+      <c r="S15" s="62" t="str">
+        <f>IF(_auto_shift_all!Q12="","",_auto_shift_all!Q12)</f>
+        <v/>
+      </c>
+      <c r="T15" s="62" t="str">
+        <f>IF(_auto_shift_all!R12="","",_auto_shift_all!R12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="62" t="str">
+        <f>IF(_auto_shift_all!A14="","",_auto_shift_all!A14)</f>
+        <v/>
+      </c>
+      <c r="D16" s="62" t="str">
+        <f>IF(_auto_shift_all!B14="","",_auto_shift_all!B14)</f>
+        <v/>
+      </c>
+      <c r="E16" s="62" t="str">
+        <f>IF(_auto_shift_all!C14="","",_auto_shift_all!C14)</f>
+        <v/>
+      </c>
+      <c r="F16" s="62" t="str">
+        <f>IF(_auto_shift_all!D14="","",_auto_shift_all!D14)</f>
+        <v/>
+      </c>
+      <c r="G16" s="62" t="str">
+        <f>IF(_auto_shift_all!E14="","",_auto_shift_all!E14)</f>
+        <v/>
+      </c>
+      <c r="H16" s="62" t="str">
+        <f>IF(_auto_shift_all!F14="","",_auto_shift_all!F14)</f>
+        <v/>
+      </c>
+      <c r="I16" s="62" t="str">
+        <f>IF(_auto_shift_all!G14="","",_auto_shift_all!G14)</f>
+        <v/>
+      </c>
+      <c r="J16" s="62" t="str">
+        <f>IF(_auto_shift_all!H14="","",_auto_shift_all!H14)</f>
+        <v/>
+      </c>
+      <c r="K16" s="62" t="str">
+        <f>IF(_auto_shift_all!I14="","",_auto_shift_all!I14)</f>
+        <v/>
+      </c>
+      <c r="L16" s="62" t="str">
+        <f>IF(_auto_shift_all!J14="","",_auto_shift_all!J14)</f>
+        <v/>
+      </c>
+      <c r="M16" s="62" t="str">
+        <f>IF(_auto_shift_all!K14="","",_auto_shift_all!K14)</f>
+        <v/>
+      </c>
+      <c r="N16" s="62" t="str">
+        <f>IF(_auto_shift_all!L14="","",_auto_shift_all!L14)</f>
+        <v/>
+      </c>
+      <c r="O16" s="62" t="str">
+        <f>IF(_auto_shift_all!M14="","",_auto_shift_all!M14)</f>
+        <v/>
+      </c>
+      <c r="P16" s="62" t="str">
+        <f>IF(_auto_shift_all!N14="","",_auto_shift_all!N14)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="62" t="str">
+        <f>IF(_auto_shift_all!O14="","",_auto_shift_all!O14)</f>
+        <v/>
+      </c>
+      <c r="R16" s="62" t="str">
+        <f>IF(_auto_shift_all!P14="","",_auto_shift_all!P14)</f>
+        <v/>
+      </c>
+      <c r="S16" s="62" t="str">
+        <f>IF(_auto_shift_all!Q14="","",_auto_shift_all!Q14)</f>
+        <v/>
+      </c>
+      <c r="T16" s="62" t="str">
+        <f>IF(_auto_shift_all!R14="","",_auto_shift_all!R14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="62" t="str">
+        <f>IF(_auto_shift_all!A16="","",_auto_shift_all!A16)</f>
+        <v/>
+      </c>
+      <c r="D17" s="62" t="str">
+        <f>IF(_auto_shift_all!B16="","",_auto_shift_all!B16)</f>
+        <v/>
+      </c>
+      <c r="E17" s="62" t="str">
+        <f>IF(_auto_shift_all!C16="","",_auto_shift_all!C16)</f>
+        <v/>
+      </c>
+      <c r="F17" s="62" t="str">
+        <f>IF(_auto_shift_all!D16="","",_auto_shift_all!D16)</f>
+        <v/>
+      </c>
+      <c r="G17" s="62" t="str">
+        <f>IF(_auto_shift_all!E16="","",_auto_shift_all!E16)</f>
+        <v/>
+      </c>
+      <c r="H17" s="62" t="str">
+        <f>IF(_auto_shift_all!F16="","",_auto_shift_all!F16)</f>
+        <v/>
+      </c>
+      <c r="I17" s="62" t="str">
+        <f>IF(_auto_shift_all!G16="","",_auto_shift_all!G16)</f>
+        <v/>
+      </c>
+      <c r="J17" s="62" t="str">
+        <f>IF(_auto_shift_all!H16="","",_auto_shift_all!H16)</f>
+        <v/>
+      </c>
+      <c r="K17" s="62" t="str">
+        <f>IF(_auto_shift_all!I16="","",_auto_shift_all!I16)</f>
+        <v/>
+      </c>
+      <c r="L17" s="62" t="str">
+        <f>IF(_auto_shift_all!J16="","",_auto_shift_all!J16)</f>
+        <v/>
+      </c>
+      <c r="M17" s="62" t="str">
+        <f>IF(_auto_shift_all!K16="","",_auto_shift_all!K16)</f>
+        <v/>
+      </c>
+      <c r="N17" s="62" t="str">
+        <f>IF(_auto_shift_all!L16="","",_auto_shift_all!L16)</f>
+        <v/>
+      </c>
+      <c r="O17" s="62" t="str">
+        <f>IF(_auto_shift_all!M16="","",_auto_shift_all!M16)</f>
+        <v/>
+      </c>
+      <c r="P17" s="62" t="str">
+        <f>IF(_auto_shift_all!N16="","",_auto_shift_all!N16)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="62" t="str">
+        <f>IF(_auto_shift_all!O16="","",_auto_shift_all!O16)</f>
+        <v/>
+      </c>
+      <c r="R17" s="62" t="str">
+        <f>IF(_auto_shift_all!P16="","",_auto_shift_all!P16)</f>
+        <v/>
+      </c>
+      <c r="S17" s="62" t="str">
+        <f>IF(_auto_shift_all!Q16="","",_auto_shift_all!Q16)</f>
+        <v/>
+      </c>
+      <c r="T17" s="62" t="str">
+        <f>IF(_auto_shift_all!R16="","",_auto_shift_all!R16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B18" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="91"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" ht="18.75" spans="2:22">
-      <c r="B12" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="92"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" ht="18.75" spans="2:22">
-      <c r="B13" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q13" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="T13" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="61" t="str">
-        <f>IF(_auto_shift_all!A10="","",_auto_shift_all!A10)</f>
-        <v/>
-      </c>
-      <c r="D14" s="61" t="str">
-        <f>IF(_auto_shift_all!B10="","",_auto_shift_all!B10)</f>
-        <v/>
-      </c>
-      <c r="E14" s="61" t="str">
-        <f>IF(_auto_shift_all!C10="","",_auto_shift_all!C10)</f>
-        <v/>
-      </c>
-      <c r="F14" s="61" t="str">
-        <f>IF(_auto_shift_all!D10="","",_auto_shift_all!D10)</f>
-        <v/>
-      </c>
-      <c r="G14" s="61" t="str">
-        <f>IF(_auto_shift_all!E10="","",_auto_shift_all!E10)</f>
-        <v/>
-      </c>
-      <c r="H14" s="61" t="str">
-        <f>IF(_auto_shift_all!F10="","",_auto_shift_all!F10)</f>
-        <v/>
-      </c>
-      <c r="I14" s="61" t="str">
-        <f>IF(_auto_shift_all!G10="","",_auto_shift_all!G10)</f>
-        <v/>
-      </c>
-      <c r="J14" s="61" t="str">
-        <f>IF(_auto_shift_all!H10="","",_auto_shift_all!H10)</f>
-        <v/>
-      </c>
-      <c r="K14" s="61" t="str">
-        <f>IF(_auto_shift_all!I10="","",_auto_shift_all!I10)</f>
-        <v/>
-      </c>
-      <c r="L14" s="61" t="str">
-        <f>IF(_auto_shift_all!J10="","",_auto_shift_all!J10)</f>
-        <v/>
-      </c>
-      <c r="M14" s="61" t="str">
-        <f>IF(_auto_shift_all!K10="","",_auto_shift_all!K10)</f>
-        <v/>
-      </c>
-      <c r="N14" s="61" t="str">
-        <f>IF(_auto_shift_all!L10="","",_auto_shift_all!L10)</f>
-        <v/>
-      </c>
-      <c r="O14" s="61" t="str">
-        <f>IF(_auto_shift_all!M10="","",_auto_shift_all!M10)</f>
-        <v/>
-      </c>
-      <c r="P14" s="61" t="str">
-        <f>IF(_auto_shift_all!N10="","",_auto_shift_all!N10)</f>
-        <v/>
-      </c>
-      <c r="Q14" s="61" t="str">
-        <f>IF(_auto_shift_all!O10="","",_auto_shift_all!O10)</f>
-        <v/>
-      </c>
-      <c r="R14" s="61" t="str">
-        <f>IF(_auto_shift_all!P10="","",_auto_shift_all!P10)</f>
-        <v/>
-      </c>
-      <c r="S14" s="61" t="str">
-        <f>IF(_auto_shift_all!Q10="","",_auto_shift_all!Q10)</f>
-        <v/>
-      </c>
-      <c r="T14" s="61" t="str">
-        <f>IF(_auto_shift_all!R10="","",_auto_shift_all!R10)</f>
-        <v/>
-      </c>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="61" t="str">
-        <f>IF(_auto_shift_all!A12="","",_auto_shift_all!A12)</f>
-        <v/>
-      </c>
-      <c r="D15" s="61" t="str">
-        <f>IF(_auto_shift_all!B12="","",_auto_shift_all!B12)</f>
-        <v/>
-      </c>
-      <c r="E15" s="61" t="str">
-        <f>IF(_auto_shift_all!C12="","",_auto_shift_all!C12)</f>
-        <v/>
-      </c>
-      <c r="F15" s="61" t="str">
-        <f>IF(_auto_shift_all!D12="","",_auto_shift_all!D12)</f>
-        <v/>
-      </c>
-      <c r="G15" s="61" t="str">
-        <f>IF(_auto_shift_all!E12="","",_auto_shift_all!E12)</f>
-        <v/>
-      </c>
-      <c r="H15" s="61" t="str">
-        <f>IF(_auto_shift_all!F12="","",_auto_shift_all!F12)</f>
-        <v/>
-      </c>
-      <c r="I15" s="61" t="str">
-        <f>IF(_auto_shift_all!G12="","",_auto_shift_all!G12)</f>
-        <v/>
-      </c>
-      <c r="J15" s="61" t="str">
-        <f>IF(_auto_shift_all!H12="","",_auto_shift_all!H12)</f>
-        <v/>
-      </c>
-      <c r="K15" s="61" t="str">
-        <f>IF(_auto_shift_all!I12="","",_auto_shift_all!I12)</f>
-        <v/>
-      </c>
-      <c r="L15" s="61" t="str">
-        <f>IF(_auto_shift_all!J12="","",_auto_shift_all!J12)</f>
-        <v/>
-      </c>
-      <c r="M15" s="61" t="str">
-        <f>IF(_auto_shift_all!K12="","",_auto_shift_all!K12)</f>
-        <v/>
-      </c>
-      <c r="N15" s="61" t="str">
-        <f>IF(_auto_shift_all!L12="","",_auto_shift_all!L12)</f>
-        <v/>
-      </c>
-      <c r="O15" s="61" t="str">
-        <f>IF(_auto_shift_all!M12="","",_auto_shift_all!M12)</f>
-        <v/>
-      </c>
-      <c r="P15" s="61" t="str">
-        <f>IF(_auto_shift_all!N12="","",_auto_shift_all!N12)</f>
-        <v/>
-      </c>
-      <c r="Q15" s="61" t="str">
-        <f>IF(_auto_shift_all!O12="","",_auto_shift_all!O12)</f>
-        <v/>
-      </c>
-      <c r="R15" s="61" t="str">
-        <f>IF(_auto_shift_all!P12="","",_auto_shift_all!P12)</f>
-        <v/>
-      </c>
-      <c r="S15" s="61" t="str">
-        <f>IF(_auto_shift_all!Q12="","",_auto_shift_all!Q12)</f>
-        <v/>
-      </c>
-      <c r="T15" s="61" t="str">
-        <f>IF(_auto_shift_all!R12="","",_auto_shift_all!R12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="61" t="str">
-        <f>IF(_auto_shift_all!A14="","",_auto_shift_all!A14)</f>
-        <v/>
-      </c>
-      <c r="D16" s="61" t="str">
-        <f>IF(_auto_shift_all!B14="","",_auto_shift_all!B14)</f>
-        <v/>
-      </c>
-      <c r="E16" s="61" t="str">
-        <f>IF(_auto_shift_all!C14="","",_auto_shift_all!C14)</f>
-        <v/>
-      </c>
-      <c r="F16" s="61" t="str">
-        <f>IF(_auto_shift_all!D14="","",_auto_shift_all!D14)</f>
-        <v/>
-      </c>
-      <c r="G16" s="61" t="str">
-        <f>IF(_auto_shift_all!E14="","",_auto_shift_all!E14)</f>
-        <v/>
-      </c>
-      <c r="H16" s="61" t="str">
-        <f>IF(_auto_shift_all!F14="","",_auto_shift_all!F14)</f>
-        <v/>
-      </c>
-      <c r="I16" s="61" t="str">
-        <f>IF(_auto_shift_all!G14="","",_auto_shift_all!G14)</f>
-        <v/>
-      </c>
-      <c r="J16" s="61" t="str">
-        <f>IF(_auto_shift_all!H14="","",_auto_shift_all!H14)</f>
-        <v/>
-      </c>
-      <c r="K16" s="61" t="str">
-        <f>IF(_auto_shift_all!I14="","",_auto_shift_all!I14)</f>
-        <v/>
-      </c>
-      <c r="L16" s="61" t="str">
-        <f>IF(_auto_shift_all!J14="","",_auto_shift_all!J14)</f>
-        <v/>
-      </c>
-      <c r="M16" s="61" t="str">
-        <f>IF(_auto_shift_all!K14="","",_auto_shift_all!K14)</f>
-        <v/>
-      </c>
-      <c r="N16" s="61" t="str">
-        <f>IF(_auto_shift_all!L14="","",_auto_shift_all!L14)</f>
-        <v/>
-      </c>
-      <c r="O16" s="61" t="str">
-        <f>IF(_auto_shift_all!M14="","",_auto_shift_all!M14)</f>
-        <v/>
-      </c>
-      <c r="P16" s="61" t="str">
-        <f>IF(_auto_shift_all!N14="","",_auto_shift_all!N14)</f>
-        <v/>
-      </c>
-      <c r="Q16" s="61" t="str">
-        <f>IF(_auto_shift_all!O14="","",_auto_shift_all!O14)</f>
-        <v/>
-      </c>
-      <c r="R16" s="61" t="str">
-        <f>IF(_auto_shift_all!P14="","",_auto_shift_all!P14)</f>
-        <v/>
-      </c>
-      <c r="S16" s="61" t="str">
-        <f>IF(_auto_shift_all!Q14="","",_auto_shift_all!Q14)</f>
-        <v/>
-      </c>
-      <c r="T16" s="61" t="str">
-        <f>IF(_auto_shift_all!R14="","",_auto_shift_all!R14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="61" t="str">
-        <f>IF(_auto_shift_all!A16="","",_auto_shift_all!A16)</f>
-        <v/>
-      </c>
-      <c r="D17" s="61" t="str">
-        <f>IF(_auto_shift_all!B16="","",_auto_shift_all!B16)</f>
-        <v/>
-      </c>
-      <c r="E17" s="61" t="str">
-        <f>IF(_auto_shift_all!C16="","",_auto_shift_all!C16)</f>
-        <v/>
-      </c>
-      <c r="F17" s="61" t="str">
-        <f>IF(_auto_shift_all!D16="","",_auto_shift_all!D16)</f>
-        <v/>
-      </c>
-      <c r="G17" s="61" t="str">
-        <f>IF(_auto_shift_all!E16="","",_auto_shift_all!E16)</f>
-        <v/>
-      </c>
-      <c r="H17" s="61" t="str">
-        <f>IF(_auto_shift_all!F16="","",_auto_shift_all!F16)</f>
-        <v/>
-      </c>
-      <c r="I17" s="61" t="str">
-        <f>IF(_auto_shift_all!G16="","",_auto_shift_all!G16)</f>
-        <v/>
-      </c>
-      <c r="J17" s="61" t="str">
-        <f>IF(_auto_shift_all!H16="","",_auto_shift_all!H16)</f>
-        <v/>
-      </c>
-      <c r="K17" s="61" t="str">
-        <f>IF(_auto_shift_all!I16="","",_auto_shift_all!I16)</f>
-        <v/>
-      </c>
-      <c r="L17" s="61" t="str">
-        <f>IF(_auto_shift_all!J16="","",_auto_shift_all!J16)</f>
-        <v/>
-      </c>
-      <c r="M17" s="61" t="str">
-        <f>IF(_auto_shift_all!K16="","",_auto_shift_all!K16)</f>
-        <v/>
-      </c>
-      <c r="N17" s="61" t="str">
-        <f>IF(_auto_shift_all!L16="","",_auto_shift_all!L16)</f>
-        <v/>
-      </c>
-      <c r="O17" s="61" t="str">
-        <f>IF(_auto_shift_all!M16="","",_auto_shift_all!M16)</f>
-        <v/>
-      </c>
-      <c r="P17" s="61" t="str">
-        <f>IF(_auto_shift_all!N16="","",_auto_shift_all!N16)</f>
-        <v/>
-      </c>
-      <c r="Q17" s="61" t="str">
-        <f>IF(_auto_shift_all!O16="","",_auto_shift_all!O16)</f>
-        <v/>
-      </c>
-      <c r="R17" s="61" t="str">
-        <f>IF(_auto_shift_all!P16="","",_auto_shift_all!P16)</f>
-        <v/>
-      </c>
-      <c r="S17" s="61" t="str">
-        <f>IF(_auto_shift_all!Q16="","",_auto_shift_all!Q16)</f>
-        <v/>
-      </c>
-      <c r="T17" s="61" t="str">
-        <f>IF(_auto_shift_all!R16="","",_auto_shift_all!R16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B18" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="68">
+      <c r="C18" s="69">
         <f>SUM(D17:I17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="68">
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="69">
         <f>SUM(J17:O17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="68">
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="69">
         <f>SUM(P17:U17)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="71"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B19" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="71" t="s">
+      <c r="B19" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="71" t="s">
+      <c r="C19" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="71" t="s">
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="95"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="97"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B20" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="74" t="s">
+      <c r="B20" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="59"/>
+      <c r="C20" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="60"/>
     </row>
     <row r="21" ht="18.75" spans="2:20">
-      <c r="B21" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="75" t="s">
+      <c r="B21" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="D21" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="E21" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="75" t="s">
+      <c r="F21" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="75" t="s">
+      <c r="G21" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="H21" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="I21" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="75" t="s">
+      <c r="J21" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="75" t="s">
+      <c r="K21" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="75" t="s">
+      <c r="L21" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="75" t="s">
+      <c r="M21" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="75" t="s">
+      <c r="N21" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="75" t="s">
+      <c r="O21" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="75" t="s">
+      <c r="P21" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="75" t="s">
+      <c r="Q21" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="S21" s="75" t="s">
+      <c r="R21" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="T21" s="96" t="s">
+      <c r="S21" s="76" t="s">
         <v>74</v>
       </c>
+      <c r="T21" s="98" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="61" t="str">
+      <c r="B22" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="62" t="str">
         <f>IF(_auto_shift_all!A18="","",_auto_shift_all!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="61" t="str">
+      <c r="D22" s="62" t="str">
         <f>IF(_auto_shift_all!B18="","",_auto_shift_all!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="61" t="str">
+      <c r="E22" s="62" t="str">
         <f>IF(_auto_shift_all!C18="","",_auto_shift_all!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="61" t="str">
+      <c r="F22" s="62" t="str">
         <f>IF(_auto_shift_all!D18="","",_auto_shift_all!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="61" t="str">
+      <c r="G22" s="62" t="str">
         <f>IF(_auto_shift_all!E18="","",_auto_shift_all!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="61" t="str">
+      <c r="H22" s="62" t="str">
         <f>IF(_auto_shift_all!F18="","",_auto_shift_all!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="61" t="str">
+      <c r="I22" s="62" t="str">
         <f>IF(_auto_shift_all!G18="","",_auto_shift_all!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="61" t="str">
+      <c r="J22" s="62" t="str">
         <f>IF(_auto_shift_all!H18="","",_auto_shift_all!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="61" t="str">
+      <c r="K22" s="62" t="str">
         <f>IF(_auto_shift_all!I18="","",_auto_shift_all!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="61" t="str">
+      <c r="L22" s="62" t="str">
         <f>IF(_auto_shift_all!J18="","",_auto_shift_all!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="61" t="str">
+      <c r="M22" s="62" t="str">
         <f>IF(_auto_shift_all!K18="","",_auto_shift_all!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="61" t="str">
+      <c r="N22" s="62" t="str">
         <f>IF(_auto_shift_all!L18="","",_auto_shift_all!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="61" t="str">
+      <c r="O22" s="62" t="str">
         <f>IF(_auto_shift_all!M18="","",_auto_shift_all!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="61" t="str">
+      <c r="P22" s="62" t="str">
         <f>IF(_auto_shift_all!N18="","",_auto_shift_all!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="61" t="str">
+      <c r="Q22" s="62" t="str">
         <f>IF(_auto_shift_all!O18="","",_auto_shift_all!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="61" t="str">
+      <c r="R22" s="62" t="str">
         <f>IF(_auto_shift_all!P18="","",_auto_shift_all!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="61" t="str">
+      <c r="S22" s="62" t="str">
         <f>IF(_auto_shift_all!Q18="","",_auto_shift_all!Q18)</f>
         <v/>
       </c>
-      <c r="T22" s="61" t="str">
+      <c r="T22" s="62" t="str">
         <f>IF(_auto_shift_all!R18="","",_auto_shift_all!R18)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="61" t="str">
+      <c r="B23" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="62" t="str">
         <f>IF(_auto_shift_all!A20="","",_auto_shift_all!A20)</f>
         <v/>
       </c>
-      <c r="D23" s="61" t="str">
+      <c r="D23" s="62" t="str">
         <f>IF(_auto_shift_all!B20="","",_auto_shift_all!B20)</f>
         <v/>
       </c>
-      <c r="E23" s="61" t="str">
+      <c r="E23" s="62" t="str">
         <f>IF(_auto_shift_all!C20="","",_auto_shift_all!C20)</f>
         <v/>
       </c>
-      <c r="F23" s="61" t="str">
+      <c r="F23" s="62" t="str">
         <f>IF(_auto_shift_all!D20="","",_auto_shift_all!D20)</f>
         <v/>
       </c>
-      <c r="G23" s="61" t="str">
+      <c r="G23" s="62" t="str">
         <f>IF(_auto_shift_all!E20="","",_auto_shift_all!E20)</f>
         <v/>
       </c>
-      <c r="H23" s="61" t="str">
+      <c r="H23" s="62" t="str">
         <f>IF(_auto_shift_all!F20="","",_auto_shift_all!F20)</f>
         <v/>
       </c>
-      <c r="I23" s="61" t="str">
+      <c r="I23" s="62" t="str">
         <f>IF(_auto_shift_all!G20="","",_auto_shift_all!G20)</f>
         <v/>
       </c>
-      <c r="J23" s="61" t="str">
+      <c r="J23" s="62" t="str">
         <f>IF(_auto_shift_all!H20="","",_auto_shift_all!H20)</f>
         <v/>
       </c>
-      <c r="K23" s="61" t="str">
+      <c r="K23" s="62" t="str">
         <f>IF(_auto_shift_all!I20="","",_auto_shift_all!I20)</f>
         <v/>
       </c>
-      <c r="L23" s="61" t="str">
+      <c r="L23" s="62" t="str">
         <f>IF(_auto_shift_all!J20="","",_auto_shift_all!J20)</f>
         <v/>
       </c>
-      <c r="M23" s="61" t="str">
+      <c r="M23" s="62" t="str">
         <f>IF(_auto_shift_all!K20="","",_auto_shift_all!K20)</f>
         <v/>
       </c>
-      <c r="N23" s="61" t="str">
+      <c r="N23" s="62" t="str">
         <f>IF(_auto_shift_all!L20="","",_auto_shift_all!L20)</f>
         <v/>
       </c>
-      <c r="O23" s="61" t="str">
+      <c r="O23" s="62" t="str">
         <f>IF(_auto_shift_all!M20="","",_auto_shift_all!M20)</f>
         <v/>
       </c>
-      <c r="P23" s="61" t="str">
+      <c r="P23" s="62" t="str">
         <f>IF(_auto_shift_all!N20="","",_auto_shift_all!N20)</f>
         <v/>
       </c>
-      <c r="Q23" s="61" t="str">
+      <c r="Q23" s="62" t="str">
         <f>IF(_auto_shift_all!O20="","",_auto_shift_all!O20)</f>
         <v/>
       </c>
-      <c r="R23" s="61" t="str">
+      <c r="R23" s="62" t="str">
         <f>IF(_auto_shift_all!P20="","",_auto_shift_all!P20)</f>
         <v/>
       </c>
-      <c r="S23" s="61" t="str">
+      <c r="S23" s="62" t="str">
         <f>IF(_auto_shift_all!Q20="","",_auto_shift_all!Q20)</f>
         <v/>
       </c>
-      <c r="T23" s="61" t="str">
+      <c r="T23" s="62" t="str">
         <f>IF(_auto_shift_all!R20="","",_auto_shift_all!R20)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="61" t="str">
+      <c r="B24" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="62" t="str">
         <f>IF(_auto_shift_all!A22="","",_auto_shift_all!A22)</f>
         <v/>
       </c>
-      <c r="D24" s="61" t="str">
+      <c r="D24" s="62" t="str">
         <f>IF(_auto_shift_all!B22="","",_auto_shift_all!B22)</f>
         <v/>
       </c>
-      <c r="E24" s="61" t="str">
+      <c r="E24" s="62" t="str">
         <f>IF(_auto_shift_all!C22="","",_auto_shift_all!C22)</f>
         <v/>
       </c>
-      <c r="F24" s="61" t="str">
+      <c r="F24" s="62" t="str">
         <f>IF(_auto_shift_all!D22="","",_auto_shift_all!D22)</f>
         <v/>
       </c>
-      <c r="G24" s="61" t="str">
+      <c r="G24" s="62" t="str">
         <f>IF(_auto_shift_all!E22="","",_auto_shift_all!E22)</f>
         <v/>
       </c>
-      <c r="H24" s="61" t="str">
+      <c r="H24" s="62" t="str">
         <f>IF(_auto_shift_all!F22="","",_auto_shift_all!F22)</f>
         <v/>
       </c>
-      <c r="I24" s="61" t="str">
+      <c r="I24" s="62" t="str">
         <f>IF(_auto_shift_all!G22="","",_auto_shift_all!G22)</f>
         <v/>
       </c>
-      <c r="J24" s="61" t="str">
+      <c r="J24" s="62" t="str">
         <f>IF(_auto_shift_all!H22="","",_auto_shift_all!H22)</f>
         <v/>
       </c>
-      <c r="K24" s="61" t="str">
+      <c r="K24" s="62" t="str">
         <f>IF(_auto_shift_all!I22="","",_auto_shift_all!I22)</f>
         <v/>
       </c>
-      <c r="L24" s="61" t="str">
+      <c r="L24" s="62" t="str">
         <f>IF(_auto_shift_all!J22="","",_auto_shift_all!J22)</f>
         <v/>
       </c>
-      <c r="M24" s="61" t="str">
+      <c r="M24" s="62" t="str">
         <f>IF(_auto_shift_all!K22="","",_auto_shift_all!K22)</f>
         <v/>
       </c>
-      <c r="N24" s="61" t="str">
+      <c r="N24" s="62" t="str">
         <f>IF(_auto_shift_all!L22="","",_auto_shift_all!L22)</f>
         <v/>
       </c>
-      <c r="O24" s="61" t="str">
+      <c r="O24" s="62" t="str">
         <f>IF(_auto_shift_all!M22="","",_auto_shift_all!M22)</f>
         <v/>
       </c>
-      <c r="P24" s="61" t="str">
+      <c r="P24" s="62" t="str">
         <f>IF(_auto_shift_all!N22="","",_auto_shift_all!N22)</f>
         <v/>
       </c>
-      <c r="Q24" s="61" t="str">
+      <c r="Q24" s="62" t="str">
         <f>IF(_auto_shift_all!O22="","",_auto_shift_all!O22)</f>
         <v/>
       </c>
-      <c r="R24" s="61" t="str">
+      <c r="R24" s="62" t="str">
         <f>IF(_auto_shift_all!P22="","",_auto_shift_all!P22)</f>
         <v/>
       </c>
-      <c r="S24" s="61" t="str">
+      <c r="S24" s="62" t="str">
         <f>IF(_auto_shift_all!Q22="","",_auto_shift_all!Q22)</f>
         <v/>
       </c>
-      <c r="T24" s="61" t="str">
+      <c r="T24" s="62" t="str">
         <f>IF(_auto_shift_all!R22="","",_auto_shift_all!R22)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="61" t="str">
+      <c r="B25" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="62" t="str">
         <f>IF(_auto_shift_all!A24="","",_auto_shift_all!A24)</f>
         <v/>
       </c>
-      <c r="D25" s="61" t="str">
+      <c r="D25" s="62" t="str">
         <f>IF(_auto_shift_all!B24="","",_auto_shift_all!B24)</f>
         <v/>
       </c>
-      <c r="E25" s="61" t="str">
+      <c r="E25" s="62" t="str">
         <f>IF(_auto_shift_all!C24="","",_auto_shift_all!C24)</f>
         <v/>
       </c>
-      <c r="F25" s="61" t="str">
+      <c r="F25" s="62" t="str">
         <f>IF(_auto_shift_all!D24="","",_auto_shift_all!D24)</f>
         <v/>
       </c>
-      <c r="G25" s="61" t="str">
+      <c r="G25" s="62" t="str">
         <f>IF(_auto_shift_all!E24="","",_auto_shift_all!E24)</f>
         <v/>
       </c>
-      <c r="H25" s="61" t="str">
+      <c r="H25" s="62" t="str">
         <f>IF(_auto_shift_all!F24="","",_auto_shift_all!F24)</f>
         <v/>
       </c>
-      <c r="I25" s="61" t="str">
+      <c r="I25" s="62" t="str">
         <f>IF(_auto_shift_all!G24="","",_auto_shift_all!G24)</f>
         <v/>
       </c>
-      <c r="J25" s="61" t="str">
+      <c r="J25" s="62" t="str">
         <f>IF(_auto_shift_all!H24="","",_auto_shift_all!H24)</f>
         <v/>
       </c>
-      <c r="K25" s="61" t="str">
+      <c r="K25" s="62" t="str">
         <f>IF(_auto_shift_all!I24="","",_auto_shift_all!I24)</f>
         <v/>
       </c>
-      <c r="L25" s="61" t="str">
+      <c r="L25" s="62" t="str">
         <f>IF(_auto_shift_all!J24="","",_auto_shift_all!J24)</f>
         <v/>
       </c>
-      <c r="M25" s="61" t="str">
+      <c r="M25" s="62" t="str">
         <f>IF(_auto_shift_all!K24="","",_auto_shift_all!K24)</f>
         <v/>
       </c>
-      <c r="N25" s="61" t="str">
+      <c r="N25" s="62" t="str">
         <f>IF(_auto_shift_all!L24="","",_auto_shift_all!L24)</f>
         <v/>
       </c>
-      <c r="O25" s="61" t="str">
+      <c r="O25" s="62" t="str">
         <f>IF(_auto_shift_all!M24="","",_auto_shift_all!M24)</f>
         <v/>
       </c>
-      <c r="P25" s="61" t="str">
+      <c r="P25" s="62" t="str">
         <f>IF(_auto_shift_all!N24="","",_auto_shift_all!N24)</f>
         <v/>
       </c>
-      <c r="Q25" s="61" t="str">
+      <c r="Q25" s="62" t="str">
         <f>IF(_auto_shift_all!O24="","",_auto_shift_all!O24)</f>
         <v/>
       </c>
-      <c r="R25" s="61" t="str">
+      <c r="R25" s="62" t="str">
         <f>IF(_auto_shift_all!P24="","",_auto_shift_all!P24)</f>
         <v/>
       </c>
-      <c r="S25" s="61" t="str">
+      <c r="S25" s="62" t="str">
         <f>IF(_auto_shift_all!Q24="","",_auto_shift_all!Q24)</f>
         <v/>
       </c>
-      <c r="T25" s="61" t="str">
+      <c r="T25" s="62" t="str">
         <f>IF(_auto_shift_all!R24="","",_auto_shift_all!R24)</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B26" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="68">
+      <c r="B26" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="69">
         <f>SUM(D25:I25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="68">
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="69">
         <f>SUM(J25:O25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="68">
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="69">
         <f>SUM(P25:U25)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="71"/>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B27" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="77" t="str">
+      <c r="B27" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="78" t="str">
         <f>IF(_auto_shift_all!A26="","",_auto_shift_all!A26)</f>
         <v/>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="88"/>
-      <c r="K27" s="78" t="str">
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="90"/>
+      <c r="K27" s="79" t="str">
         <f>IF(_auto_shift_all!B26="","",_auto_shift_all!B26)</f>
         <v/>
       </c>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="80"/>
     </row>
     <row r="28" ht="77.45" customHeight="1" spans="2:20">
-      <c r="B28" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="97"/>
+      <c r="B28" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="99"/>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B29" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85" t="s">
+      <c r="B29" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="98"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="100"/>
     </row>
     <row r="37" ht="18.75" customHeight="1"/>
     <row r="46" ht="117" customHeight="1"/>
@@ -4725,7 +4675,10 @@
     <row r="57" ht="18.75" customHeight="1"/>
     <row r="66" ht="135.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="35">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="O3:T3"/>
@@ -4794,7 +4747,7 @@
   <sheetData>
     <row r="1" ht="26.1" customHeight="1" spans="2:15">
       <c r="B1" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -4822,7 +4775,7 @@
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
@@ -4830,22 +4783,22 @@
     </row>
     <row r="3" ht="26.25" customHeight="1" spans="2:15">
       <c r="B3" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
@@ -4854,10 +4807,10 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1" spans="2:15">
@@ -4867,25 +4820,25 @@
       <c r="E4" s="30"/>
       <c r="F4" s="31"/>
       <c r="G4" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="48"/>
@@ -10451,46 +10404,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -10504,7 +10457,7 @@
   <sheetPr/>
   <dimension ref="B2:V17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
@@ -10535,19 +10488,19 @@
   <sheetData>
     <row r="2" ht="19.5" spans="2:22">
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="L2" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -10555,7 +10508,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="16"/>
       <c r="S2" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -10563,45 +10516,45 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J3" s="7"/>
       <c r="L3" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="S3" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V3" s="7"/>
     </row>
@@ -10609,125 +10562,125 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="S5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O6" s="13">
         <v>43240</v>
@@ -10735,59 +10688,59 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="S6" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="18" spans="2:22">
       <c r="B7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="S7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -10795,171 +10748,171 @@
     </row>
     <row r="8" ht="18" spans="12:17">
       <c r="L8" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" ht="18" spans="12:17">
       <c r="L9" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="12:17">
       <c r="L10" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="12:17">
       <c r="L11" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" ht="27" spans="12:17">
       <c r="L12" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" ht="18" spans="12:17">
       <c r="L13" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
     <row r="14" ht="18" spans="12:17">
       <c r="L14" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
     <row r="15" ht="18" spans="12:17">
       <c r="L15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="12:17">
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="12:17">
       <c r="L17" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
@@ -10997,7 +10950,7 @@
   <sheetPr/>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -11013,682 +10966,682 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I17" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-配煤报表设计1107.xlsx
+++ b/excel/finished/焦化/CK67-配煤报表设计1107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="749"/>
+    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="749" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
@@ -13,23 +13,92 @@
     <sheet name="备注_煤种分类" sheetId="40" r:id="rId4"/>
     <sheet name="_auto_shift_all" sheetId="41" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
   <si>
     <t xml:space="preserve">                    焦化分厂焦炉配煤自动配煤操作记录       </t>
   </si>
   <si>
-    <t>白 班</t>
-  </si>
-  <si>
-    <t>编号：SGSSG-BSMCSA35-G001-02A</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">年  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">月  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 日          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 班                编号：SGSSG-BSMCSA35-G001-02A</t>
+    </r>
   </si>
   <si>
     <t>筒    仓</t>
@@ -1451,12 +1520,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1592,8 +1660,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1607,7 +1713,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,65 +1736,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1695,31 +1758,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1733,9 +1781,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1750,6 +1813,12 @@
       <sz val="7"/>
       <color indexed="63"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1781,7 +1850,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,79 +2006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,91 +2030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2302,6 +2371,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2326,26 +2419,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2365,15 +2454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2388,167 +2468,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2697,9 +2766,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2772,9 +2838,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2858,19 +2921,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3165,8 +3215,8 @@
   </sheetPr>
   <dimension ref="B1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3185,1494 +3235,1489 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="2:23">
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="87" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="54" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="54" t="s">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="91"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="93"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B4" s="57" t="s">
+      <c r="C4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="92"/>
+    </row>
+    <row r="5" ht="18.75" spans="2:22">
+      <c r="B5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="94"/>
-    </row>
-    <row r="5" ht="18.75" spans="2:22">
-      <c r="B5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="D5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="E5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="F5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="G5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="H5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="J5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="K5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="L5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="M5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="N5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="O5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="P5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="61" t="s">
+      <c r="Q5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="61" t="s">
+      <c r="R5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="61" t="s">
+      <c r="S5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="T5" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="95" t="s">
+      <c r="V5" s="94"/>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="96"/>
-    </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="57" t="s">
+      <c r="C6" s="61" t="str">
+        <f>IF(_auto_shift_all!A2="","",_auto_shift_all!A2)</f>
+        <v/>
+      </c>
+      <c r="D6" s="61" t="str">
+        <f>IF(_auto_shift_all!B2="","",_auto_shift_all!B2)</f>
+        <v/>
+      </c>
+      <c r="E6" s="61" t="str">
+        <f>IF(_auto_shift_all!C2="","",_auto_shift_all!C2)</f>
+        <v/>
+      </c>
+      <c r="F6" s="61" t="str">
+        <f>IF(_auto_shift_all!D2="","",_auto_shift_all!D2)</f>
+        <v/>
+      </c>
+      <c r="G6" s="61" t="str">
+        <f>IF(_auto_shift_all!E2="","",_auto_shift_all!E2)</f>
+        <v/>
+      </c>
+      <c r="H6" s="61" t="str">
+        <f>IF(_auto_shift_all!F2="","",_auto_shift_all!F2)</f>
+        <v/>
+      </c>
+      <c r="I6" s="61" t="str">
+        <f>IF(_auto_shift_all!G2="","",_auto_shift_all!G2)</f>
+        <v/>
+      </c>
+      <c r="J6" s="61" t="str">
+        <f>IF(_auto_shift_all!H2="","",_auto_shift_all!H2)</f>
+        <v/>
+      </c>
+      <c r="K6" s="61" t="str">
+        <f>IF(_auto_shift_all!I2="","",_auto_shift_all!I2)</f>
+        <v/>
+      </c>
+      <c r="L6" s="61" t="str">
+        <f>IF(_auto_shift_all!J2="","",_auto_shift_all!J2)</f>
+        <v/>
+      </c>
+      <c r="M6" s="61" t="str">
+        <f>IF(_auto_shift_all!K2="","",_auto_shift_all!K2)</f>
+        <v/>
+      </c>
+      <c r="N6" s="61" t="str">
+        <f>IF(_auto_shift_all!L2="","",_auto_shift_all!L2)</f>
+        <v/>
+      </c>
+      <c r="O6" s="61" t="str">
+        <f>IF(_auto_shift_all!M2="","",_auto_shift_all!M2)</f>
+        <v/>
+      </c>
+      <c r="P6" s="61" t="str">
+        <f>IF(_auto_shift_all!N2="","",_auto_shift_all!N2)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="61" t="str">
+        <f>IF(_auto_shift_all!O2="","",_auto_shift_all!O2)</f>
+        <v/>
+      </c>
+      <c r="R6" s="61" t="str">
+        <f>IF(_auto_shift_all!P2="","",_auto_shift_all!P2)</f>
+        <v/>
+      </c>
+      <c r="S6" s="61" t="str">
+        <f>IF(_auto_shift_all!Q2="","",_auto_shift_all!Q2)</f>
+        <v/>
+      </c>
+      <c r="T6" s="61" t="str">
+        <f>IF(_auto_shift_all!R2="","",_auto_shift_all!R2)</f>
+        <v/>
+      </c>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="62" t="str">
-        <f>IF(_auto_shift_all!A2="","",_auto_shift_all!A2)</f>
-        <v/>
-      </c>
-      <c r="D6" s="62" t="str">
-        <f>IF(_auto_shift_all!B2="","",_auto_shift_all!B2)</f>
-        <v/>
-      </c>
-      <c r="E6" s="62" t="str">
-        <f>IF(_auto_shift_all!C2="","",_auto_shift_all!C2)</f>
-        <v/>
-      </c>
-      <c r="F6" s="62" t="str">
-        <f>IF(_auto_shift_all!D2="","",_auto_shift_all!D2)</f>
-        <v/>
-      </c>
-      <c r="G6" s="62" t="str">
-        <f>IF(_auto_shift_all!E2="","",_auto_shift_all!E2)</f>
-        <v/>
-      </c>
-      <c r="H6" s="62" t="str">
-        <f>IF(_auto_shift_all!F2="","",_auto_shift_all!F2)</f>
-        <v/>
-      </c>
-      <c r="I6" s="62" t="str">
-        <f>IF(_auto_shift_all!G2="","",_auto_shift_all!G2)</f>
-        <v/>
-      </c>
-      <c r="J6" s="62" t="str">
-        <f>IF(_auto_shift_all!H2="","",_auto_shift_all!H2)</f>
-        <v/>
-      </c>
-      <c r="K6" s="62" t="str">
-        <f>IF(_auto_shift_all!I2="","",_auto_shift_all!I2)</f>
-        <v/>
-      </c>
-      <c r="L6" s="62" t="str">
-        <f>IF(_auto_shift_all!J2="","",_auto_shift_all!J2)</f>
-        <v/>
-      </c>
-      <c r="M6" s="62" t="str">
-        <f>IF(_auto_shift_all!K2="","",_auto_shift_all!K2)</f>
-        <v/>
-      </c>
-      <c r="N6" s="62" t="str">
-        <f>IF(_auto_shift_all!L2="","",_auto_shift_all!L2)</f>
-        <v/>
-      </c>
-      <c r="O6" s="62" t="str">
-        <f>IF(_auto_shift_all!M2="","",_auto_shift_all!M2)</f>
-        <v/>
-      </c>
-      <c r="P6" s="62" t="str">
-        <f>IF(_auto_shift_all!N2="","",_auto_shift_all!N2)</f>
-        <v/>
-      </c>
-      <c r="Q6" s="62" t="str">
-        <f>IF(_auto_shift_all!O2="","",_auto_shift_all!O2)</f>
-        <v/>
-      </c>
-      <c r="R6" s="62" t="str">
-        <f>IF(_auto_shift_all!P2="","",_auto_shift_all!P2)</f>
-        <v/>
-      </c>
-      <c r="S6" s="62" t="str">
-        <f>IF(_auto_shift_all!Q2="","",_auto_shift_all!Q2)</f>
-        <v/>
-      </c>
-      <c r="T6" s="62" t="str">
-        <f>IF(_auto_shift_all!R2="","",_auto_shift_all!R2)</f>
-        <v/>
-      </c>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="63" t="s">
+      <c r="C7" s="61" t="str">
+        <f>IF(_auto_shift_all!A4="","",_auto_shift_all!A4)</f>
+        <v/>
+      </c>
+      <c r="D7" s="61" t="str">
+        <f>IF(_auto_shift_all!B4="","",_auto_shift_all!B4)</f>
+        <v/>
+      </c>
+      <c r="E7" s="63" t="str">
+        <f>IF(_auto_shift_all!C4="","",_auto_shift_all!C4)</f>
+        <v/>
+      </c>
+      <c r="F7" s="61" t="str">
+        <f>IF(_auto_shift_all!D4="","",_auto_shift_all!D4)</f>
+        <v/>
+      </c>
+      <c r="G7" s="61" t="str">
+        <f>IF(_auto_shift_all!E4="","",_auto_shift_all!E4)</f>
+        <v/>
+      </c>
+      <c r="H7" s="61" t="str">
+        <f>IF(_auto_shift_all!F4="","",_auto_shift_all!F4)</f>
+        <v/>
+      </c>
+      <c r="I7" s="61" t="str">
+        <f>IF(_auto_shift_all!G4="","",_auto_shift_all!G4)</f>
+        <v/>
+      </c>
+      <c r="J7" s="61" t="str">
+        <f>IF(_auto_shift_all!H4="","",_auto_shift_all!H4)</f>
+        <v/>
+      </c>
+      <c r="K7" s="61" t="str">
+        <f>IF(_auto_shift_all!I4="","",_auto_shift_all!I4)</f>
+        <v/>
+      </c>
+      <c r="L7" s="61" t="str">
+        <f>IF(_auto_shift_all!J4="","",_auto_shift_all!J4)</f>
+        <v/>
+      </c>
+      <c r="M7" s="61" t="str">
+        <f>IF(_auto_shift_all!K4="","",_auto_shift_all!K4)</f>
+        <v/>
+      </c>
+      <c r="N7" s="61" t="str">
+        <f>IF(_auto_shift_all!L4="","",_auto_shift_all!L4)</f>
+        <v/>
+      </c>
+      <c r="O7" s="61" t="str">
+        <f>IF(_auto_shift_all!M4="","",_auto_shift_all!M4)</f>
+        <v/>
+      </c>
+      <c r="P7" s="61" t="str">
+        <f>IF(_auto_shift_all!N4="","",_auto_shift_all!N4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="61" t="str">
+        <f>IF(_auto_shift_all!O4="","",_auto_shift_all!O4)</f>
+        <v/>
+      </c>
+      <c r="R7" s="61" t="str">
+        <f>IF(_auto_shift_all!P4="","",_auto_shift_all!P4)</f>
+        <v/>
+      </c>
+      <c r="S7" s="61" t="str">
+        <f>IF(_auto_shift_all!Q4="","",_auto_shift_all!Q4)</f>
+        <v/>
+      </c>
+      <c r="T7" s="61" t="str">
+        <f>IF(_auto_shift_all!R4="","",_auto_shift_all!R4)</f>
+        <v/>
+      </c>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="62" t="str">
-        <f>IF(_auto_shift_all!A4="","",_auto_shift_all!A4)</f>
-        <v/>
-      </c>
-      <c r="D7" s="62" t="str">
-        <f>IF(_auto_shift_all!B4="","",_auto_shift_all!B4)</f>
-        <v/>
-      </c>
-      <c r="E7" s="64" t="str">
-        <f>IF(_auto_shift_all!C4="","",_auto_shift_all!C4)</f>
-        <v/>
-      </c>
-      <c r="F7" s="62" t="str">
-        <f>IF(_auto_shift_all!D4="","",_auto_shift_all!D4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="62" t="str">
-        <f>IF(_auto_shift_all!E4="","",_auto_shift_all!E4)</f>
-        <v/>
-      </c>
-      <c r="H7" s="62" t="str">
-        <f>IF(_auto_shift_all!F4="","",_auto_shift_all!F4)</f>
-        <v/>
-      </c>
-      <c r="I7" s="62" t="str">
-        <f>IF(_auto_shift_all!G4="","",_auto_shift_all!G4)</f>
-        <v/>
-      </c>
-      <c r="J7" s="62" t="str">
-        <f>IF(_auto_shift_all!H4="","",_auto_shift_all!H4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="62" t="str">
-        <f>IF(_auto_shift_all!I4="","",_auto_shift_all!I4)</f>
-        <v/>
-      </c>
-      <c r="L7" s="62" t="str">
-        <f>IF(_auto_shift_all!J4="","",_auto_shift_all!J4)</f>
-        <v/>
-      </c>
-      <c r="M7" s="62" t="str">
-        <f>IF(_auto_shift_all!K4="","",_auto_shift_all!K4)</f>
-        <v/>
-      </c>
-      <c r="N7" s="62" t="str">
-        <f>IF(_auto_shift_all!L4="","",_auto_shift_all!L4)</f>
-        <v/>
-      </c>
-      <c r="O7" s="62" t="str">
-        <f>IF(_auto_shift_all!M4="","",_auto_shift_all!M4)</f>
-        <v/>
-      </c>
-      <c r="P7" s="62" t="str">
-        <f>IF(_auto_shift_all!N4="","",_auto_shift_all!N4)</f>
-        <v/>
-      </c>
-      <c r="Q7" s="62" t="str">
-        <f>IF(_auto_shift_all!O4="","",_auto_shift_all!O4)</f>
-        <v/>
-      </c>
-      <c r="R7" s="62" t="str">
-        <f>IF(_auto_shift_all!P4="","",_auto_shift_all!P4)</f>
-        <v/>
-      </c>
-      <c r="S7" s="62" t="str">
-        <f>IF(_auto_shift_all!Q4="","",_auto_shift_all!Q4)</f>
-        <v/>
-      </c>
-      <c r="T7" s="62" t="str">
-        <f>IF(_auto_shift_all!R4="","",_auto_shift_all!R4)</f>
-        <v/>
-      </c>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="63" t="s">
+      <c r="C8" s="61" t="str">
+        <f>IF(_auto_shift_all!A6="","",_auto_shift_all!A6)</f>
+        <v/>
+      </c>
+      <c r="D8" s="61" t="str">
+        <f>IF(_auto_shift_all!B6="","",_auto_shift_all!B6)</f>
+        <v/>
+      </c>
+      <c r="E8" s="63" t="str">
+        <f>IF(_auto_shift_all!C6="","",_auto_shift_all!C6)</f>
+        <v/>
+      </c>
+      <c r="F8" s="61" t="str">
+        <f>IF(_auto_shift_all!D6="","",_auto_shift_all!D6)</f>
+        <v/>
+      </c>
+      <c r="G8" s="61" t="str">
+        <f>IF(_auto_shift_all!E6="","",_auto_shift_all!E6)</f>
+        <v/>
+      </c>
+      <c r="H8" s="61" t="str">
+        <f>IF(_auto_shift_all!F6="","",_auto_shift_all!F6)</f>
+        <v/>
+      </c>
+      <c r="I8" s="61" t="str">
+        <f>IF(_auto_shift_all!G6="","",_auto_shift_all!G6)</f>
+        <v/>
+      </c>
+      <c r="J8" s="61" t="str">
+        <f>IF(_auto_shift_all!H6="","",_auto_shift_all!H6)</f>
+        <v/>
+      </c>
+      <c r="K8" s="61" t="str">
+        <f>IF(_auto_shift_all!I6="","",_auto_shift_all!I6)</f>
+        <v/>
+      </c>
+      <c r="L8" s="61" t="str">
+        <f>IF(_auto_shift_all!J6="","",_auto_shift_all!J6)</f>
+        <v/>
+      </c>
+      <c r="M8" s="61" t="str">
+        <f>IF(_auto_shift_all!K6="","",_auto_shift_all!K6)</f>
+        <v/>
+      </c>
+      <c r="N8" s="61" t="str">
+        <f>IF(_auto_shift_all!L6="","",_auto_shift_all!L6)</f>
+        <v/>
+      </c>
+      <c r="O8" s="61" t="str">
+        <f>IF(_auto_shift_all!M6="","",_auto_shift_all!M6)</f>
+        <v/>
+      </c>
+      <c r="P8" s="61" t="str">
+        <f>IF(_auto_shift_all!N6="","",_auto_shift_all!N6)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="61" t="str">
+        <f>IF(_auto_shift_all!O6="","",_auto_shift_all!O6)</f>
+        <v/>
+      </c>
+      <c r="R8" s="61" t="str">
+        <f>IF(_auto_shift_all!P6="","",_auto_shift_all!P6)</f>
+        <v/>
+      </c>
+      <c r="S8" s="61" t="str">
+        <f>IF(_auto_shift_all!Q6="","",_auto_shift_all!Q6)</f>
+        <v/>
+      </c>
+      <c r="T8" s="61" t="str">
+        <f>IF(_auto_shift_all!R6="","",_auto_shift_all!R6)</f>
+        <v/>
+      </c>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="62" t="str">
-        <f>IF(_auto_shift_all!A6="","",_auto_shift_all!A6)</f>
-        <v/>
-      </c>
-      <c r="D8" s="62" t="str">
-        <f>IF(_auto_shift_all!B6="","",_auto_shift_all!B6)</f>
-        <v/>
-      </c>
-      <c r="E8" s="64" t="str">
-        <f>IF(_auto_shift_all!C6="","",_auto_shift_all!C6)</f>
-        <v/>
-      </c>
-      <c r="F8" s="62" t="str">
-        <f>IF(_auto_shift_all!D6="","",_auto_shift_all!D6)</f>
-        <v/>
-      </c>
-      <c r="G8" s="62" t="str">
-        <f>IF(_auto_shift_all!E6="","",_auto_shift_all!E6)</f>
-        <v/>
-      </c>
-      <c r="H8" s="62" t="str">
-        <f>IF(_auto_shift_all!F6="","",_auto_shift_all!F6)</f>
-        <v/>
-      </c>
-      <c r="I8" s="62" t="str">
-        <f>IF(_auto_shift_all!G6="","",_auto_shift_all!G6)</f>
-        <v/>
-      </c>
-      <c r="J8" s="62" t="str">
-        <f>IF(_auto_shift_all!H6="","",_auto_shift_all!H6)</f>
-        <v/>
-      </c>
-      <c r="K8" s="62" t="str">
-        <f>IF(_auto_shift_all!I6="","",_auto_shift_all!I6)</f>
-        <v/>
-      </c>
-      <c r="L8" s="62" t="str">
-        <f>IF(_auto_shift_all!J6="","",_auto_shift_all!J6)</f>
-        <v/>
-      </c>
-      <c r="M8" s="62" t="str">
-        <f>IF(_auto_shift_all!K6="","",_auto_shift_all!K6)</f>
-        <v/>
-      </c>
-      <c r="N8" s="62" t="str">
-        <f>IF(_auto_shift_all!L6="","",_auto_shift_all!L6)</f>
-        <v/>
-      </c>
-      <c r="O8" s="62" t="str">
-        <f>IF(_auto_shift_all!M6="","",_auto_shift_all!M6)</f>
-        <v/>
-      </c>
-      <c r="P8" s="62" t="str">
-        <f>IF(_auto_shift_all!N6="","",_auto_shift_all!N6)</f>
-        <v/>
-      </c>
-      <c r="Q8" s="62" t="str">
-        <f>IF(_auto_shift_all!O6="","",_auto_shift_all!O6)</f>
-        <v/>
-      </c>
-      <c r="R8" s="62" t="str">
-        <f>IF(_auto_shift_all!P6="","",_auto_shift_all!P6)</f>
-        <v/>
-      </c>
-      <c r="S8" s="62" t="str">
-        <f>IF(_auto_shift_all!Q6="","",_auto_shift_all!Q6)</f>
-        <v/>
-      </c>
-      <c r="T8" s="62" t="str">
-        <f>IF(_auto_shift_all!R6="","",_auto_shift_all!R6)</f>
-        <v/>
-      </c>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="2:22">
-      <c r="B9" s="63" t="s">
+      <c r="C9" s="61" t="str">
+        <f>IF(_auto_shift_all!A8="","",_auto_shift_all!A8)</f>
+        <v/>
+      </c>
+      <c r="D9" s="61" t="str">
+        <f>IF(_auto_shift_all!B8="","",_auto_shift_all!B8)</f>
+        <v/>
+      </c>
+      <c r="E9" s="61" t="str">
+        <f>IF(_auto_shift_all!C8="","",_auto_shift_all!C8)</f>
+        <v/>
+      </c>
+      <c r="F9" s="61" t="str">
+        <f>IF(_auto_shift_all!D8="","",_auto_shift_all!D8)</f>
+        <v/>
+      </c>
+      <c r="G9" s="61" t="str">
+        <f>IF(_auto_shift_all!E8="","",_auto_shift_all!E8)</f>
+        <v/>
+      </c>
+      <c r="H9" s="61" t="str">
+        <f>IF(_auto_shift_all!F8="","",_auto_shift_all!F8)</f>
+        <v/>
+      </c>
+      <c r="I9" s="61" t="str">
+        <f>IF(_auto_shift_all!G8="","",_auto_shift_all!G8)</f>
+        <v/>
+      </c>
+      <c r="J9" s="61" t="str">
+        <f>IF(_auto_shift_all!H8="","",_auto_shift_all!H8)</f>
+        <v/>
+      </c>
+      <c r="K9" s="61" t="str">
+        <f>IF(_auto_shift_all!I8="","",_auto_shift_all!I8)</f>
+        <v/>
+      </c>
+      <c r="L9" s="61" t="str">
+        <f>IF(_auto_shift_all!J8="","",_auto_shift_all!J8)</f>
+        <v/>
+      </c>
+      <c r="M9" s="61" t="str">
+        <f>IF(_auto_shift_all!K8="","",_auto_shift_all!K8)</f>
+        <v/>
+      </c>
+      <c r="N9" s="61" t="str">
+        <f>IF(_auto_shift_all!L8="","",_auto_shift_all!L8)</f>
+        <v/>
+      </c>
+      <c r="O9" s="61" t="str">
+        <f>IF(_auto_shift_all!M8="","",_auto_shift_all!M8)</f>
+        <v/>
+      </c>
+      <c r="P9" s="61" t="str">
+        <f>IF(_auto_shift_all!N8="","",_auto_shift_all!N8)</f>
+        <v/>
+      </c>
+      <c r="Q9" s="61" t="str">
+        <f>IF(_auto_shift_all!O8="","",_auto_shift_all!O8)</f>
+        <v/>
+      </c>
+      <c r="R9" s="61" t="str">
+        <f>IF(_auto_shift_all!P8="","",_auto_shift_all!P8)</f>
+        <v/>
+      </c>
+      <c r="S9" s="61" t="str">
+        <f>IF(_auto_shift_all!Q8="","",_auto_shift_all!Q8)</f>
+        <v/>
+      </c>
+      <c r="T9" s="61" t="str">
+        <f>IF(_auto_shift_all!R8="","",_auto_shift_all!R8)</f>
+        <v/>
+      </c>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B10" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="62" t="str">
-        <f>IF(_auto_shift_all!A8="","",_auto_shift_all!A8)</f>
-        <v/>
-      </c>
-      <c r="D9" s="62" t="str">
-        <f>IF(_auto_shift_all!B8="","",_auto_shift_all!B8)</f>
-        <v/>
-      </c>
-      <c r="E9" s="62" t="str">
-        <f>IF(_auto_shift_all!C8="","",_auto_shift_all!C8)</f>
-        <v/>
-      </c>
-      <c r="F9" s="62" t="str">
-        <f>IF(_auto_shift_all!D8="","",_auto_shift_all!D8)</f>
-        <v/>
-      </c>
-      <c r="G9" s="62" t="str">
-        <f>IF(_auto_shift_all!E8="","",_auto_shift_all!E8)</f>
-        <v/>
-      </c>
-      <c r="H9" s="62" t="str">
-        <f>IF(_auto_shift_all!F8="","",_auto_shift_all!F8)</f>
-        <v/>
-      </c>
-      <c r="I9" s="62" t="str">
-        <f>IF(_auto_shift_all!G8="","",_auto_shift_all!G8)</f>
-        <v/>
-      </c>
-      <c r="J9" s="62" t="str">
-        <f>IF(_auto_shift_all!H8="","",_auto_shift_all!H8)</f>
-        <v/>
-      </c>
-      <c r="K9" s="62" t="str">
-        <f>IF(_auto_shift_all!I8="","",_auto_shift_all!I8)</f>
-        <v/>
-      </c>
-      <c r="L9" s="62" t="str">
-        <f>IF(_auto_shift_all!J8="","",_auto_shift_all!J8)</f>
-        <v/>
-      </c>
-      <c r="M9" s="62" t="str">
-        <f>IF(_auto_shift_all!K8="","",_auto_shift_all!K8)</f>
-        <v/>
-      </c>
-      <c r="N9" s="62" t="str">
-        <f>IF(_auto_shift_all!L8="","",_auto_shift_all!L8)</f>
-        <v/>
-      </c>
-      <c r="O9" s="62" t="str">
-        <f>IF(_auto_shift_all!M8="","",_auto_shift_all!M8)</f>
-        <v/>
-      </c>
-      <c r="P9" s="62" t="str">
-        <f>IF(_auto_shift_all!N8="","",_auto_shift_all!N8)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="62" t="str">
-        <f>IF(_auto_shift_all!O8="","",_auto_shift_all!O8)</f>
-        <v/>
-      </c>
-      <c r="R9" s="62" t="str">
-        <f>IF(_auto_shift_all!P8="","",_auto_shift_all!P8)</f>
-        <v/>
-      </c>
-      <c r="S9" s="62" t="str">
-        <f>IF(_auto_shift_all!Q8="","",_auto_shift_all!Q8)</f>
-        <v/>
-      </c>
-      <c r="T9" s="62" t="str">
-        <f>IF(_auto_shift_all!R8="","",_auto_shift_all!R8)</f>
-        <v/>
-      </c>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B10" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="66">
+      <c r="C10" s="65">
         <f>SUM(D9:I9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69">
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68">
         <f>SUM(J9:O9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="69">
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="68">
         <f>SUM(P9:U9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="71"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="70"/>
     </row>
     <row r="11" ht="18.75" spans="2:22">
-      <c r="B11" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="54" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="54" t="s">
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="91"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" ht="18.75" spans="2:22">
+      <c r="B12" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="92"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" ht="18.75" spans="2:22">
+      <c r="B13" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="93"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" ht="18.75" spans="2:22">
-      <c r="B12" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="94"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" ht="18.75" spans="2:22">
-      <c r="B13" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="E13" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="F13" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="H13" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="I13" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="J13" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="K13" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="61" t="s">
+      <c r="L13" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="M13" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="N13" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="61" t="s">
+      <c r="O13" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="61" t="s">
+      <c r="P13" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="61" t="s">
+      <c r="Q13" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="Q13" s="61" t="s">
+      <c r="R13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="61" t="s">
+      <c r="S13" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S13" s="61" t="s">
+      <c r="T13" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="T13" s="95" t="s">
-        <v>53</v>
-      </c>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="61" t="str">
+        <f>IF(_auto_shift_all!A10="","",_auto_shift_all!A10)</f>
+        <v/>
+      </c>
+      <c r="D14" s="61" t="str">
+        <f>IF(_auto_shift_all!B10="","",_auto_shift_all!B10)</f>
+        <v/>
+      </c>
+      <c r="E14" s="61" t="str">
+        <f>IF(_auto_shift_all!C10="","",_auto_shift_all!C10)</f>
+        <v/>
+      </c>
+      <c r="F14" s="61" t="str">
+        <f>IF(_auto_shift_all!D10="","",_auto_shift_all!D10)</f>
+        <v/>
+      </c>
+      <c r="G14" s="61" t="str">
+        <f>IF(_auto_shift_all!E10="","",_auto_shift_all!E10)</f>
+        <v/>
+      </c>
+      <c r="H14" s="61" t="str">
+        <f>IF(_auto_shift_all!F10="","",_auto_shift_all!F10)</f>
+        <v/>
+      </c>
+      <c r="I14" s="61" t="str">
+        <f>IF(_auto_shift_all!G10="","",_auto_shift_all!G10)</f>
+        <v/>
+      </c>
+      <c r="J14" s="61" t="str">
+        <f>IF(_auto_shift_all!H10="","",_auto_shift_all!H10)</f>
+        <v/>
+      </c>
+      <c r="K14" s="61" t="str">
+        <f>IF(_auto_shift_all!I10="","",_auto_shift_all!I10)</f>
+        <v/>
+      </c>
+      <c r="L14" s="61" t="str">
+        <f>IF(_auto_shift_all!J10="","",_auto_shift_all!J10)</f>
+        <v/>
+      </c>
+      <c r="M14" s="61" t="str">
+        <f>IF(_auto_shift_all!K10="","",_auto_shift_all!K10)</f>
+        <v/>
+      </c>
+      <c r="N14" s="61" t="str">
+        <f>IF(_auto_shift_all!L10="","",_auto_shift_all!L10)</f>
+        <v/>
+      </c>
+      <c r="O14" s="61" t="str">
+        <f>IF(_auto_shift_all!M10="","",_auto_shift_all!M10)</f>
+        <v/>
+      </c>
+      <c r="P14" s="61" t="str">
+        <f>IF(_auto_shift_all!N10="","",_auto_shift_all!N10)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="61" t="str">
+        <f>IF(_auto_shift_all!O10="","",_auto_shift_all!O10)</f>
+        <v/>
+      </c>
+      <c r="R14" s="61" t="str">
+        <f>IF(_auto_shift_all!P10="","",_auto_shift_all!P10)</f>
+        <v/>
+      </c>
+      <c r="S14" s="61" t="str">
+        <f>IF(_auto_shift_all!Q10="","",_auto_shift_all!Q10)</f>
+        <v/>
+      </c>
+      <c r="T14" s="61" t="str">
+        <f>IF(_auto_shift_all!R10="","",_auto_shift_all!R10)</f>
+        <v/>
+      </c>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="62" t="str">
-        <f>IF(_auto_shift_all!A10="","",_auto_shift_all!A10)</f>
-        <v/>
-      </c>
-      <c r="D14" s="62" t="str">
-        <f>IF(_auto_shift_all!B10="","",_auto_shift_all!B10)</f>
-        <v/>
-      </c>
-      <c r="E14" s="62" t="str">
-        <f>IF(_auto_shift_all!C10="","",_auto_shift_all!C10)</f>
-        <v/>
-      </c>
-      <c r="F14" s="62" t="str">
-        <f>IF(_auto_shift_all!D10="","",_auto_shift_all!D10)</f>
-        <v/>
-      </c>
-      <c r="G14" s="62" t="str">
-        <f>IF(_auto_shift_all!E10="","",_auto_shift_all!E10)</f>
-        <v/>
-      </c>
-      <c r="H14" s="62" t="str">
-        <f>IF(_auto_shift_all!F10="","",_auto_shift_all!F10)</f>
-        <v/>
-      </c>
-      <c r="I14" s="62" t="str">
-        <f>IF(_auto_shift_all!G10="","",_auto_shift_all!G10)</f>
-        <v/>
-      </c>
-      <c r="J14" s="62" t="str">
-        <f>IF(_auto_shift_all!H10="","",_auto_shift_all!H10)</f>
-        <v/>
-      </c>
-      <c r="K14" s="62" t="str">
-        <f>IF(_auto_shift_all!I10="","",_auto_shift_all!I10)</f>
-        <v/>
-      </c>
-      <c r="L14" s="62" t="str">
-        <f>IF(_auto_shift_all!J10="","",_auto_shift_all!J10)</f>
-        <v/>
-      </c>
-      <c r="M14" s="62" t="str">
-        <f>IF(_auto_shift_all!K10="","",_auto_shift_all!K10)</f>
-        <v/>
-      </c>
-      <c r="N14" s="62" t="str">
-        <f>IF(_auto_shift_all!L10="","",_auto_shift_all!L10)</f>
-        <v/>
-      </c>
-      <c r="O14" s="62" t="str">
-        <f>IF(_auto_shift_all!M10="","",_auto_shift_all!M10)</f>
-        <v/>
-      </c>
-      <c r="P14" s="62" t="str">
-        <f>IF(_auto_shift_all!N10="","",_auto_shift_all!N10)</f>
-        <v/>
-      </c>
-      <c r="Q14" s="62" t="str">
-        <f>IF(_auto_shift_all!O10="","",_auto_shift_all!O10)</f>
-        <v/>
-      </c>
-      <c r="R14" s="62" t="str">
-        <f>IF(_auto_shift_all!P10="","",_auto_shift_all!P10)</f>
-        <v/>
-      </c>
-      <c r="S14" s="62" t="str">
-        <f>IF(_auto_shift_all!Q10="","",_auto_shift_all!Q10)</f>
-        <v/>
-      </c>
-      <c r="T14" s="62" t="str">
-        <f>IF(_auto_shift_all!R10="","",_auto_shift_all!R10)</f>
-        <v/>
-      </c>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="63" t="s">
+      <c r="C15" s="61" t="str">
+        <f>IF(_auto_shift_all!A12="","",_auto_shift_all!A12)</f>
+        <v/>
+      </c>
+      <c r="D15" s="61" t="str">
+        <f>IF(_auto_shift_all!B12="","",_auto_shift_all!B12)</f>
+        <v/>
+      </c>
+      <c r="E15" s="61" t="str">
+        <f>IF(_auto_shift_all!C12="","",_auto_shift_all!C12)</f>
+        <v/>
+      </c>
+      <c r="F15" s="61" t="str">
+        <f>IF(_auto_shift_all!D12="","",_auto_shift_all!D12)</f>
+        <v/>
+      </c>
+      <c r="G15" s="61" t="str">
+        <f>IF(_auto_shift_all!E12="","",_auto_shift_all!E12)</f>
+        <v/>
+      </c>
+      <c r="H15" s="61" t="str">
+        <f>IF(_auto_shift_all!F12="","",_auto_shift_all!F12)</f>
+        <v/>
+      </c>
+      <c r="I15" s="61" t="str">
+        <f>IF(_auto_shift_all!G12="","",_auto_shift_all!G12)</f>
+        <v/>
+      </c>
+      <c r="J15" s="61" t="str">
+        <f>IF(_auto_shift_all!H12="","",_auto_shift_all!H12)</f>
+        <v/>
+      </c>
+      <c r="K15" s="61" t="str">
+        <f>IF(_auto_shift_all!I12="","",_auto_shift_all!I12)</f>
+        <v/>
+      </c>
+      <c r="L15" s="61" t="str">
+        <f>IF(_auto_shift_all!J12="","",_auto_shift_all!J12)</f>
+        <v/>
+      </c>
+      <c r="M15" s="61" t="str">
+        <f>IF(_auto_shift_all!K12="","",_auto_shift_all!K12)</f>
+        <v/>
+      </c>
+      <c r="N15" s="61" t="str">
+        <f>IF(_auto_shift_all!L12="","",_auto_shift_all!L12)</f>
+        <v/>
+      </c>
+      <c r="O15" s="61" t="str">
+        <f>IF(_auto_shift_all!M12="","",_auto_shift_all!M12)</f>
+        <v/>
+      </c>
+      <c r="P15" s="61" t="str">
+        <f>IF(_auto_shift_all!N12="","",_auto_shift_all!N12)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="61" t="str">
+        <f>IF(_auto_shift_all!O12="","",_auto_shift_all!O12)</f>
+        <v/>
+      </c>
+      <c r="R15" s="61" t="str">
+        <f>IF(_auto_shift_all!P12="","",_auto_shift_all!P12)</f>
+        <v/>
+      </c>
+      <c r="S15" s="61" t="str">
+        <f>IF(_auto_shift_all!Q12="","",_auto_shift_all!Q12)</f>
+        <v/>
+      </c>
+      <c r="T15" s="61" t="str">
+        <f>IF(_auto_shift_all!R12="","",_auto_shift_all!R12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="62" t="str">
-        <f>IF(_auto_shift_all!A12="","",_auto_shift_all!A12)</f>
-        <v/>
-      </c>
-      <c r="D15" s="62" t="str">
-        <f>IF(_auto_shift_all!B12="","",_auto_shift_all!B12)</f>
-        <v/>
-      </c>
-      <c r="E15" s="62" t="str">
-        <f>IF(_auto_shift_all!C12="","",_auto_shift_all!C12)</f>
-        <v/>
-      </c>
-      <c r="F15" s="62" t="str">
-        <f>IF(_auto_shift_all!D12="","",_auto_shift_all!D12)</f>
-        <v/>
-      </c>
-      <c r="G15" s="62" t="str">
-        <f>IF(_auto_shift_all!E12="","",_auto_shift_all!E12)</f>
-        <v/>
-      </c>
-      <c r="H15" s="62" t="str">
-        <f>IF(_auto_shift_all!F12="","",_auto_shift_all!F12)</f>
-        <v/>
-      </c>
-      <c r="I15" s="62" t="str">
-        <f>IF(_auto_shift_all!G12="","",_auto_shift_all!G12)</f>
-        <v/>
-      </c>
-      <c r="J15" s="62" t="str">
-        <f>IF(_auto_shift_all!H12="","",_auto_shift_all!H12)</f>
-        <v/>
-      </c>
-      <c r="K15" s="62" t="str">
-        <f>IF(_auto_shift_all!I12="","",_auto_shift_all!I12)</f>
-        <v/>
-      </c>
-      <c r="L15" s="62" t="str">
-        <f>IF(_auto_shift_all!J12="","",_auto_shift_all!J12)</f>
-        <v/>
-      </c>
-      <c r="M15" s="62" t="str">
-        <f>IF(_auto_shift_all!K12="","",_auto_shift_all!K12)</f>
-        <v/>
-      </c>
-      <c r="N15" s="62" t="str">
-        <f>IF(_auto_shift_all!L12="","",_auto_shift_all!L12)</f>
-        <v/>
-      </c>
-      <c r="O15" s="62" t="str">
-        <f>IF(_auto_shift_all!M12="","",_auto_shift_all!M12)</f>
-        <v/>
-      </c>
-      <c r="P15" s="62" t="str">
-        <f>IF(_auto_shift_all!N12="","",_auto_shift_all!N12)</f>
-        <v/>
-      </c>
-      <c r="Q15" s="62" t="str">
-        <f>IF(_auto_shift_all!O12="","",_auto_shift_all!O12)</f>
-        <v/>
-      </c>
-      <c r="R15" s="62" t="str">
-        <f>IF(_auto_shift_all!P12="","",_auto_shift_all!P12)</f>
-        <v/>
-      </c>
-      <c r="S15" s="62" t="str">
-        <f>IF(_auto_shift_all!Q12="","",_auto_shift_all!Q12)</f>
-        <v/>
-      </c>
-      <c r="T15" s="62" t="str">
-        <f>IF(_auto_shift_all!R12="","",_auto_shift_all!R12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="63" t="s">
+      <c r="C16" s="61" t="str">
+        <f>IF(_auto_shift_all!A14="","",_auto_shift_all!A14)</f>
+        <v/>
+      </c>
+      <c r="D16" s="61" t="str">
+        <f>IF(_auto_shift_all!B14="","",_auto_shift_all!B14)</f>
+        <v/>
+      </c>
+      <c r="E16" s="61" t="str">
+        <f>IF(_auto_shift_all!C14="","",_auto_shift_all!C14)</f>
+        <v/>
+      </c>
+      <c r="F16" s="61" t="str">
+        <f>IF(_auto_shift_all!D14="","",_auto_shift_all!D14)</f>
+        <v/>
+      </c>
+      <c r="G16" s="61" t="str">
+        <f>IF(_auto_shift_all!E14="","",_auto_shift_all!E14)</f>
+        <v/>
+      </c>
+      <c r="H16" s="61" t="str">
+        <f>IF(_auto_shift_all!F14="","",_auto_shift_all!F14)</f>
+        <v/>
+      </c>
+      <c r="I16" s="61" t="str">
+        <f>IF(_auto_shift_all!G14="","",_auto_shift_all!G14)</f>
+        <v/>
+      </c>
+      <c r="J16" s="61" t="str">
+        <f>IF(_auto_shift_all!H14="","",_auto_shift_all!H14)</f>
+        <v/>
+      </c>
+      <c r="K16" s="61" t="str">
+        <f>IF(_auto_shift_all!I14="","",_auto_shift_all!I14)</f>
+        <v/>
+      </c>
+      <c r="L16" s="61" t="str">
+        <f>IF(_auto_shift_all!J14="","",_auto_shift_all!J14)</f>
+        <v/>
+      </c>
+      <c r="M16" s="61" t="str">
+        <f>IF(_auto_shift_all!K14="","",_auto_shift_all!K14)</f>
+        <v/>
+      </c>
+      <c r="N16" s="61" t="str">
+        <f>IF(_auto_shift_all!L14="","",_auto_shift_all!L14)</f>
+        <v/>
+      </c>
+      <c r="O16" s="61" t="str">
+        <f>IF(_auto_shift_all!M14="","",_auto_shift_all!M14)</f>
+        <v/>
+      </c>
+      <c r="P16" s="61" t="str">
+        <f>IF(_auto_shift_all!N14="","",_auto_shift_all!N14)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="61" t="str">
+        <f>IF(_auto_shift_all!O14="","",_auto_shift_all!O14)</f>
+        <v/>
+      </c>
+      <c r="R16" s="61" t="str">
+        <f>IF(_auto_shift_all!P14="","",_auto_shift_all!P14)</f>
+        <v/>
+      </c>
+      <c r="S16" s="61" t="str">
+        <f>IF(_auto_shift_all!Q14="","",_auto_shift_all!Q14)</f>
+        <v/>
+      </c>
+      <c r="T16" s="61" t="str">
+        <f>IF(_auto_shift_all!R14="","",_auto_shift_all!R14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="62" t="str">
-        <f>IF(_auto_shift_all!A14="","",_auto_shift_all!A14)</f>
-        <v/>
-      </c>
-      <c r="D16" s="62" t="str">
-        <f>IF(_auto_shift_all!B14="","",_auto_shift_all!B14)</f>
-        <v/>
-      </c>
-      <c r="E16" s="62" t="str">
-        <f>IF(_auto_shift_all!C14="","",_auto_shift_all!C14)</f>
-        <v/>
-      </c>
-      <c r="F16" s="62" t="str">
-        <f>IF(_auto_shift_all!D14="","",_auto_shift_all!D14)</f>
-        <v/>
-      </c>
-      <c r="G16" s="62" t="str">
-        <f>IF(_auto_shift_all!E14="","",_auto_shift_all!E14)</f>
-        <v/>
-      </c>
-      <c r="H16" s="62" t="str">
-        <f>IF(_auto_shift_all!F14="","",_auto_shift_all!F14)</f>
-        <v/>
-      </c>
-      <c r="I16" s="62" t="str">
-        <f>IF(_auto_shift_all!G14="","",_auto_shift_all!G14)</f>
-        <v/>
-      </c>
-      <c r="J16" s="62" t="str">
-        <f>IF(_auto_shift_all!H14="","",_auto_shift_all!H14)</f>
-        <v/>
-      </c>
-      <c r="K16" s="62" t="str">
-        <f>IF(_auto_shift_all!I14="","",_auto_shift_all!I14)</f>
-        <v/>
-      </c>
-      <c r="L16" s="62" t="str">
-        <f>IF(_auto_shift_all!J14="","",_auto_shift_all!J14)</f>
-        <v/>
-      </c>
-      <c r="M16" s="62" t="str">
-        <f>IF(_auto_shift_all!K14="","",_auto_shift_all!K14)</f>
-        <v/>
-      </c>
-      <c r="N16" s="62" t="str">
-        <f>IF(_auto_shift_all!L14="","",_auto_shift_all!L14)</f>
-        <v/>
-      </c>
-      <c r="O16" s="62" t="str">
-        <f>IF(_auto_shift_all!M14="","",_auto_shift_all!M14)</f>
-        <v/>
-      </c>
-      <c r="P16" s="62" t="str">
-        <f>IF(_auto_shift_all!N14="","",_auto_shift_all!N14)</f>
-        <v/>
-      </c>
-      <c r="Q16" s="62" t="str">
-        <f>IF(_auto_shift_all!O14="","",_auto_shift_all!O14)</f>
-        <v/>
-      </c>
-      <c r="R16" s="62" t="str">
-        <f>IF(_auto_shift_all!P14="","",_auto_shift_all!P14)</f>
-        <v/>
-      </c>
-      <c r="S16" s="62" t="str">
-        <f>IF(_auto_shift_all!Q14="","",_auto_shift_all!Q14)</f>
-        <v/>
-      </c>
-      <c r="T16" s="62" t="str">
-        <f>IF(_auto_shift_all!R14="","",_auto_shift_all!R14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="63" t="s">
+      <c r="C17" s="61" t="str">
+        <f>IF(_auto_shift_all!A16="","",_auto_shift_all!A16)</f>
+        <v/>
+      </c>
+      <c r="D17" s="61" t="str">
+        <f>IF(_auto_shift_all!B16="","",_auto_shift_all!B16)</f>
+        <v/>
+      </c>
+      <c r="E17" s="61" t="str">
+        <f>IF(_auto_shift_all!C16="","",_auto_shift_all!C16)</f>
+        <v/>
+      </c>
+      <c r="F17" s="61" t="str">
+        <f>IF(_auto_shift_all!D16="","",_auto_shift_all!D16)</f>
+        <v/>
+      </c>
+      <c r="G17" s="61" t="str">
+        <f>IF(_auto_shift_all!E16="","",_auto_shift_all!E16)</f>
+        <v/>
+      </c>
+      <c r="H17" s="61" t="str">
+        <f>IF(_auto_shift_all!F16="","",_auto_shift_all!F16)</f>
+        <v/>
+      </c>
+      <c r="I17" s="61" t="str">
+        <f>IF(_auto_shift_all!G16="","",_auto_shift_all!G16)</f>
+        <v/>
+      </c>
+      <c r="J17" s="61" t="str">
+        <f>IF(_auto_shift_all!H16="","",_auto_shift_all!H16)</f>
+        <v/>
+      </c>
+      <c r="K17" s="61" t="str">
+        <f>IF(_auto_shift_all!I16="","",_auto_shift_all!I16)</f>
+        <v/>
+      </c>
+      <c r="L17" s="61" t="str">
+        <f>IF(_auto_shift_all!J16="","",_auto_shift_all!J16)</f>
+        <v/>
+      </c>
+      <c r="M17" s="61" t="str">
+        <f>IF(_auto_shift_all!K16="","",_auto_shift_all!K16)</f>
+        <v/>
+      </c>
+      <c r="N17" s="61" t="str">
+        <f>IF(_auto_shift_all!L16="","",_auto_shift_all!L16)</f>
+        <v/>
+      </c>
+      <c r="O17" s="61" t="str">
+        <f>IF(_auto_shift_all!M16="","",_auto_shift_all!M16)</f>
+        <v/>
+      </c>
+      <c r="P17" s="61" t="str">
+        <f>IF(_auto_shift_all!N16="","",_auto_shift_all!N16)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="61" t="str">
+        <f>IF(_auto_shift_all!O16="","",_auto_shift_all!O16)</f>
+        <v/>
+      </c>
+      <c r="R17" s="61" t="str">
+        <f>IF(_auto_shift_all!P16="","",_auto_shift_all!P16)</f>
+        <v/>
+      </c>
+      <c r="S17" s="61" t="str">
+        <f>IF(_auto_shift_all!Q16="","",_auto_shift_all!Q16)</f>
+        <v/>
+      </c>
+      <c r="T17" s="61" t="str">
+        <f>IF(_auto_shift_all!R16="","",_auto_shift_all!R16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B18" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="62" t="str">
-        <f>IF(_auto_shift_all!A16="","",_auto_shift_all!A16)</f>
-        <v/>
-      </c>
-      <c r="D17" s="62" t="str">
-        <f>IF(_auto_shift_all!B16="","",_auto_shift_all!B16)</f>
-        <v/>
-      </c>
-      <c r="E17" s="62" t="str">
-        <f>IF(_auto_shift_all!C16="","",_auto_shift_all!C16)</f>
-        <v/>
-      </c>
-      <c r="F17" s="62" t="str">
-        <f>IF(_auto_shift_all!D16="","",_auto_shift_all!D16)</f>
-        <v/>
-      </c>
-      <c r="G17" s="62" t="str">
-        <f>IF(_auto_shift_all!E16="","",_auto_shift_all!E16)</f>
-        <v/>
-      </c>
-      <c r="H17" s="62" t="str">
-        <f>IF(_auto_shift_all!F16="","",_auto_shift_all!F16)</f>
-        <v/>
-      </c>
-      <c r="I17" s="62" t="str">
-        <f>IF(_auto_shift_all!G16="","",_auto_shift_all!G16)</f>
-        <v/>
-      </c>
-      <c r="J17" s="62" t="str">
-        <f>IF(_auto_shift_all!H16="","",_auto_shift_all!H16)</f>
-        <v/>
-      </c>
-      <c r="K17" s="62" t="str">
-        <f>IF(_auto_shift_all!I16="","",_auto_shift_all!I16)</f>
-        <v/>
-      </c>
-      <c r="L17" s="62" t="str">
-        <f>IF(_auto_shift_all!J16="","",_auto_shift_all!J16)</f>
-        <v/>
-      </c>
-      <c r="M17" s="62" t="str">
-        <f>IF(_auto_shift_all!K16="","",_auto_shift_all!K16)</f>
-        <v/>
-      </c>
-      <c r="N17" s="62" t="str">
-        <f>IF(_auto_shift_all!L16="","",_auto_shift_all!L16)</f>
-        <v/>
-      </c>
-      <c r="O17" s="62" t="str">
-        <f>IF(_auto_shift_all!M16="","",_auto_shift_all!M16)</f>
-        <v/>
-      </c>
-      <c r="P17" s="62" t="str">
-        <f>IF(_auto_shift_all!N16="","",_auto_shift_all!N16)</f>
-        <v/>
-      </c>
-      <c r="Q17" s="62" t="str">
-        <f>IF(_auto_shift_all!O16="","",_auto_shift_all!O16)</f>
-        <v/>
-      </c>
-      <c r="R17" s="62" t="str">
-        <f>IF(_auto_shift_all!P16="","",_auto_shift_all!P16)</f>
-        <v/>
-      </c>
-      <c r="S17" s="62" t="str">
-        <f>IF(_auto_shift_all!Q16="","",_auto_shift_all!Q16)</f>
-        <v/>
-      </c>
-      <c r="T17" s="62" t="str">
-        <f>IF(_auto_shift_all!R16="","",_auto_shift_all!R16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B18" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="69">
+      <c r="C18" s="68">
         <f>SUM(D17:I17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="69">
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="68">
         <f>SUM(J17:O17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="69">
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="68">
         <f>SUM(P17:U17)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="71"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="70"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="72" t="s">
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="72" t="s">
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="95"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B20" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="59"/>
+    </row>
+    <row r="21" ht="18.75" spans="2:20">
+      <c r="B21" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="97"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B20" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="60"/>
-    </row>
-    <row r="21" ht="18.75" spans="2:20">
-      <c r="B21" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="76" t="s">
+      <c r="D21" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="E21" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="F21" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="G21" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="76" t="s">
+      <c r="H21" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="I21" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="J21" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="76" t="s">
+      <c r="K21" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="76" t="s">
+      <c r="L21" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="76" t="s">
+      <c r="M21" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="M21" s="76" t="s">
+      <c r="N21" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="O21" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="O21" s="76" t="s">
+      <c r="P21" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="P21" s="76" t="s">
+      <c r="Q21" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="76" t="s">
+      <c r="R21" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R21" s="76" t="s">
+      <c r="S21" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="S21" s="76" t="s">
+      <c r="T21" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="T21" s="98" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="61" t="str">
+        <f>IF(_auto_shift_all!A18="","",_auto_shift_all!A18)</f>
+        <v/>
+      </c>
+      <c r="D22" s="61" t="str">
+        <f>IF(_auto_shift_all!B18="","",_auto_shift_all!B18)</f>
+        <v/>
+      </c>
+      <c r="E22" s="61" t="str">
+        <f>IF(_auto_shift_all!C18="","",_auto_shift_all!C18)</f>
+        <v/>
+      </c>
+      <c r="F22" s="61" t="str">
+        <f>IF(_auto_shift_all!D18="","",_auto_shift_all!D18)</f>
+        <v/>
+      </c>
+      <c r="G22" s="61" t="str">
+        <f>IF(_auto_shift_all!E18="","",_auto_shift_all!E18)</f>
+        <v/>
+      </c>
+      <c r="H22" s="61" t="str">
+        <f>IF(_auto_shift_all!F18="","",_auto_shift_all!F18)</f>
+        <v/>
+      </c>
+      <c r="I22" s="61" t="str">
+        <f>IF(_auto_shift_all!G18="","",_auto_shift_all!G18)</f>
+        <v/>
+      </c>
+      <c r="J22" s="61" t="str">
+        <f>IF(_auto_shift_all!H18="","",_auto_shift_all!H18)</f>
+        <v/>
+      </c>
+      <c r="K22" s="61" t="str">
+        <f>IF(_auto_shift_all!I18="","",_auto_shift_all!I18)</f>
+        <v/>
+      </c>
+      <c r="L22" s="61" t="str">
+        <f>IF(_auto_shift_all!J18="","",_auto_shift_all!J18)</f>
+        <v/>
+      </c>
+      <c r="M22" s="61" t="str">
+        <f>IF(_auto_shift_all!K18="","",_auto_shift_all!K18)</f>
+        <v/>
+      </c>
+      <c r="N22" s="61" t="str">
+        <f>IF(_auto_shift_all!L18="","",_auto_shift_all!L18)</f>
+        <v/>
+      </c>
+      <c r="O22" s="61" t="str">
+        <f>IF(_auto_shift_all!M18="","",_auto_shift_all!M18)</f>
+        <v/>
+      </c>
+      <c r="P22" s="61" t="str">
+        <f>IF(_auto_shift_all!N18="","",_auto_shift_all!N18)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="61" t="str">
+        <f>IF(_auto_shift_all!O18="","",_auto_shift_all!O18)</f>
+        <v/>
+      </c>
+      <c r="R22" s="61" t="str">
+        <f>IF(_auto_shift_all!P18="","",_auto_shift_all!P18)</f>
+        <v/>
+      </c>
+      <c r="S22" s="61" t="str">
+        <f>IF(_auto_shift_all!Q18="","",_auto_shift_all!Q18)</f>
+        <v/>
+      </c>
+      <c r="T22" s="61" t="str">
+        <f>IF(_auto_shift_all!R18="","",_auto_shift_all!R18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="62" t="str">
-        <f>IF(_auto_shift_all!A18="","",_auto_shift_all!A18)</f>
-        <v/>
-      </c>
-      <c r="D22" s="62" t="str">
-        <f>IF(_auto_shift_all!B18="","",_auto_shift_all!B18)</f>
-        <v/>
-      </c>
-      <c r="E22" s="62" t="str">
-        <f>IF(_auto_shift_all!C18="","",_auto_shift_all!C18)</f>
-        <v/>
-      </c>
-      <c r="F22" s="62" t="str">
-        <f>IF(_auto_shift_all!D18="","",_auto_shift_all!D18)</f>
-        <v/>
-      </c>
-      <c r="G22" s="62" t="str">
-        <f>IF(_auto_shift_all!E18="","",_auto_shift_all!E18)</f>
-        <v/>
-      </c>
-      <c r="H22" s="62" t="str">
-        <f>IF(_auto_shift_all!F18="","",_auto_shift_all!F18)</f>
-        <v/>
-      </c>
-      <c r="I22" s="62" t="str">
-        <f>IF(_auto_shift_all!G18="","",_auto_shift_all!G18)</f>
-        <v/>
-      </c>
-      <c r="J22" s="62" t="str">
-        <f>IF(_auto_shift_all!H18="","",_auto_shift_all!H18)</f>
-        <v/>
-      </c>
-      <c r="K22" s="62" t="str">
-        <f>IF(_auto_shift_all!I18="","",_auto_shift_all!I18)</f>
-        <v/>
-      </c>
-      <c r="L22" s="62" t="str">
-        <f>IF(_auto_shift_all!J18="","",_auto_shift_all!J18)</f>
-        <v/>
-      </c>
-      <c r="M22" s="62" t="str">
-        <f>IF(_auto_shift_all!K18="","",_auto_shift_all!K18)</f>
-        <v/>
-      </c>
-      <c r="N22" s="62" t="str">
-        <f>IF(_auto_shift_all!L18="","",_auto_shift_all!L18)</f>
-        <v/>
-      </c>
-      <c r="O22" s="62" t="str">
-        <f>IF(_auto_shift_all!M18="","",_auto_shift_all!M18)</f>
-        <v/>
-      </c>
-      <c r="P22" s="62" t="str">
-        <f>IF(_auto_shift_all!N18="","",_auto_shift_all!N18)</f>
-        <v/>
-      </c>
-      <c r="Q22" s="62" t="str">
-        <f>IF(_auto_shift_all!O18="","",_auto_shift_all!O18)</f>
-        <v/>
-      </c>
-      <c r="R22" s="62" t="str">
-        <f>IF(_auto_shift_all!P18="","",_auto_shift_all!P18)</f>
-        <v/>
-      </c>
-      <c r="S22" s="62" t="str">
-        <f>IF(_auto_shift_all!Q18="","",_auto_shift_all!Q18)</f>
-        <v/>
-      </c>
-      <c r="T22" s="62" t="str">
-        <f>IF(_auto_shift_all!R18="","",_auto_shift_all!R18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="63" t="s">
+      <c r="C23" s="61" t="str">
+        <f>IF(_auto_shift_all!A20="","",_auto_shift_all!A20)</f>
+        <v/>
+      </c>
+      <c r="D23" s="61" t="str">
+        <f>IF(_auto_shift_all!B20="","",_auto_shift_all!B20)</f>
+        <v/>
+      </c>
+      <c r="E23" s="61" t="str">
+        <f>IF(_auto_shift_all!C20="","",_auto_shift_all!C20)</f>
+        <v/>
+      </c>
+      <c r="F23" s="61" t="str">
+        <f>IF(_auto_shift_all!D20="","",_auto_shift_all!D20)</f>
+        <v/>
+      </c>
+      <c r="G23" s="61" t="str">
+        <f>IF(_auto_shift_all!E20="","",_auto_shift_all!E20)</f>
+        <v/>
+      </c>
+      <c r="H23" s="61" t="str">
+        <f>IF(_auto_shift_all!F20="","",_auto_shift_all!F20)</f>
+        <v/>
+      </c>
+      <c r="I23" s="61" t="str">
+        <f>IF(_auto_shift_all!G20="","",_auto_shift_all!G20)</f>
+        <v/>
+      </c>
+      <c r="J23" s="61" t="str">
+        <f>IF(_auto_shift_all!H20="","",_auto_shift_all!H20)</f>
+        <v/>
+      </c>
+      <c r="K23" s="61" t="str">
+        <f>IF(_auto_shift_all!I20="","",_auto_shift_all!I20)</f>
+        <v/>
+      </c>
+      <c r="L23" s="61" t="str">
+        <f>IF(_auto_shift_all!J20="","",_auto_shift_all!J20)</f>
+        <v/>
+      </c>
+      <c r="M23" s="61" t="str">
+        <f>IF(_auto_shift_all!K20="","",_auto_shift_all!K20)</f>
+        <v/>
+      </c>
+      <c r="N23" s="61" t="str">
+        <f>IF(_auto_shift_all!L20="","",_auto_shift_all!L20)</f>
+        <v/>
+      </c>
+      <c r="O23" s="61" t="str">
+        <f>IF(_auto_shift_all!M20="","",_auto_shift_all!M20)</f>
+        <v/>
+      </c>
+      <c r="P23" s="61" t="str">
+        <f>IF(_auto_shift_all!N20="","",_auto_shift_all!N20)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="61" t="str">
+        <f>IF(_auto_shift_all!O20="","",_auto_shift_all!O20)</f>
+        <v/>
+      </c>
+      <c r="R23" s="61" t="str">
+        <f>IF(_auto_shift_all!P20="","",_auto_shift_all!P20)</f>
+        <v/>
+      </c>
+      <c r="S23" s="61" t="str">
+        <f>IF(_auto_shift_all!Q20="","",_auto_shift_all!Q20)</f>
+        <v/>
+      </c>
+      <c r="T23" s="61" t="str">
+        <f>IF(_auto_shift_all!R20="","",_auto_shift_all!R20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="62" t="str">
-        <f>IF(_auto_shift_all!A20="","",_auto_shift_all!A20)</f>
-        <v/>
-      </c>
-      <c r="D23" s="62" t="str">
-        <f>IF(_auto_shift_all!B20="","",_auto_shift_all!B20)</f>
-        <v/>
-      </c>
-      <c r="E23" s="62" t="str">
-        <f>IF(_auto_shift_all!C20="","",_auto_shift_all!C20)</f>
-        <v/>
-      </c>
-      <c r="F23" s="62" t="str">
-        <f>IF(_auto_shift_all!D20="","",_auto_shift_all!D20)</f>
-        <v/>
-      </c>
-      <c r="G23" s="62" t="str">
-        <f>IF(_auto_shift_all!E20="","",_auto_shift_all!E20)</f>
-        <v/>
-      </c>
-      <c r="H23" s="62" t="str">
-        <f>IF(_auto_shift_all!F20="","",_auto_shift_all!F20)</f>
-        <v/>
-      </c>
-      <c r="I23" s="62" t="str">
-        <f>IF(_auto_shift_all!G20="","",_auto_shift_all!G20)</f>
-        <v/>
-      </c>
-      <c r="J23" s="62" t="str">
-        <f>IF(_auto_shift_all!H20="","",_auto_shift_all!H20)</f>
-        <v/>
-      </c>
-      <c r="K23" s="62" t="str">
-        <f>IF(_auto_shift_all!I20="","",_auto_shift_all!I20)</f>
-        <v/>
-      </c>
-      <c r="L23" s="62" t="str">
-        <f>IF(_auto_shift_all!J20="","",_auto_shift_all!J20)</f>
-        <v/>
-      </c>
-      <c r="M23" s="62" t="str">
-        <f>IF(_auto_shift_all!K20="","",_auto_shift_all!K20)</f>
-        <v/>
-      </c>
-      <c r="N23" s="62" t="str">
-        <f>IF(_auto_shift_all!L20="","",_auto_shift_all!L20)</f>
-        <v/>
-      </c>
-      <c r="O23" s="62" t="str">
-        <f>IF(_auto_shift_all!M20="","",_auto_shift_all!M20)</f>
-        <v/>
-      </c>
-      <c r="P23" s="62" t="str">
-        <f>IF(_auto_shift_all!N20="","",_auto_shift_all!N20)</f>
-        <v/>
-      </c>
-      <c r="Q23" s="62" t="str">
-        <f>IF(_auto_shift_all!O20="","",_auto_shift_all!O20)</f>
-        <v/>
-      </c>
-      <c r="R23" s="62" t="str">
-        <f>IF(_auto_shift_all!P20="","",_auto_shift_all!P20)</f>
-        <v/>
-      </c>
-      <c r="S23" s="62" t="str">
-        <f>IF(_auto_shift_all!Q20="","",_auto_shift_all!Q20)</f>
-        <v/>
-      </c>
-      <c r="T23" s="62" t="str">
-        <f>IF(_auto_shift_all!R20="","",_auto_shift_all!R20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="63" t="s">
+      <c r="C24" s="61" t="str">
+        <f>IF(_auto_shift_all!A22="","",_auto_shift_all!A22)</f>
+        <v/>
+      </c>
+      <c r="D24" s="61" t="str">
+        <f>IF(_auto_shift_all!B22="","",_auto_shift_all!B22)</f>
+        <v/>
+      </c>
+      <c r="E24" s="61" t="str">
+        <f>IF(_auto_shift_all!C22="","",_auto_shift_all!C22)</f>
+        <v/>
+      </c>
+      <c r="F24" s="61" t="str">
+        <f>IF(_auto_shift_all!D22="","",_auto_shift_all!D22)</f>
+        <v/>
+      </c>
+      <c r="G24" s="61" t="str">
+        <f>IF(_auto_shift_all!E22="","",_auto_shift_all!E22)</f>
+        <v/>
+      </c>
+      <c r="H24" s="61" t="str">
+        <f>IF(_auto_shift_all!F22="","",_auto_shift_all!F22)</f>
+        <v/>
+      </c>
+      <c r="I24" s="61" t="str">
+        <f>IF(_auto_shift_all!G22="","",_auto_shift_all!G22)</f>
+        <v/>
+      </c>
+      <c r="J24" s="61" t="str">
+        <f>IF(_auto_shift_all!H22="","",_auto_shift_all!H22)</f>
+        <v/>
+      </c>
+      <c r="K24" s="61" t="str">
+        <f>IF(_auto_shift_all!I22="","",_auto_shift_all!I22)</f>
+        <v/>
+      </c>
+      <c r="L24" s="61" t="str">
+        <f>IF(_auto_shift_all!J22="","",_auto_shift_all!J22)</f>
+        <v/>
+      </c>
+      <c r="M24" s="61" t="str">
+        <f>IF(_auto_shift_all!K22="","",_auto_shift_all!K22)</f>
+        <v/>
+      </c>
+      <c r="N24" s="61" t="str">
+        <f>IF(_auto_shift_all!L22="","",_auto_shift_all!L22)</f>
+        <v/>
+      </c>
+      <c r="O24" s="61" t="str">
+        <f>IF(_auto_shift_all!M22="","",_auto_shift_all!M22)</f>
+        <v/>
+      </c>
+      <c r="P24" s="61" t="str">
+        <f>IF(_auto_shift_all!N22="","",_auto_shift_all!N22)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="61" t="str">
+        <f>IF(_auto_shift_all!O22="","",_auto_shift_all!O22)</f>
+        <v/>
+      </c>
+      <c r="R24" s="61" t="str">
+        <f>IF(_auto_shift_all!P22="","",_auto_shift_all!P22)</f>
+        <v/>
+      </c>
+      <c r="S24" s="61" t="str">
+        <f>IF(_auto_shift_all!Q22="","",_auto_shift_all!Q22)</f>
+        <v/>
+      </c>
+      <c r="T24" s="61" t="str">
+        <f>IF(_auto_shift_all!R22="","",_auto_shift_all!R22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="62" t="str">
-        <f>IF(_auto_shift_all!A22="","",_auto_shift_all!A22)</f>
-        <v/>
-      </c>
-      <c r="D24" s="62" t="str">
-        <f>IF(_auto_shift_all!B22="","",_auto_shift_all!B22)</f>
-        <v/>
-      </c>
-      <c r="E24" s="62" t="str">
-        <f>IF(_auto_shift_all!C22="","",_auto_shift_all!C22)</f>
-        <v/>
-      </c>
-      <c r="F24" s="62" t="str">
-        <f>IF(_auto_shift_all!D22="","",_auto_shift_all!D22)</f>
-        <v/>
-      </c>
-      <c r="G24" s="62" t="str">
-        <f>IF(_auto_shift_all!E22="","",_auto_shift_all!E22)</f>
-        <v/>
-      </c>
-      <c r="H24" s="62" t="str">
-        <f>IF(_auto_shift_all!F22="","",_auto_shift_all!F22)</f>
-        <v/>
-      </c>
-      <c r="I24" s="62" t="str">
-        <f>IF(_auto_shift_all!G22="","",_auto_shift_all!G22)</f>
-        <v/>
-      </c>
-      <c r="J24" s="62" t="str">
-        <f>IF(_auto_shift_all!H22="","",_auto_shift_all!H22)</f>
-        <v/>
-      </c>
-      <c r="K24" s="62" t="str">
-        <f>IF(_auto_shift_all!I22="","",_auto_shift_all!I22)</f>
-        <v/>
-      </c>
-      <c r="L24" s="62" t="str">
-        <f>IF(_auto_shift_all!J22="","",_auto_shift_all!J22)</f>
-        <v/>
-      </c>
-      <c r="M24" s="62" t="str">
-        <f>IF(_auto_shift_all!K22="","",_auto_shift_all!K22)</f>
-        <v/>
-      </c>
-      <c r="N24" s="62" t="str">
-        <f>IF(_auto_shift_all!L22="","",_auto_shift_all!L22)</f>
-        <v/>
-      </c>
-      <c r="O24" s="62" t="str">
-        <f>IF(_auto_shift_all!M22="","",_auto_shift_all!M22)</f>
-        <v/>
-      </c>
-      <c r="P24" s="62" t="str">
-        <f>IF(_auto_shift_all!N22="","",_auto_shift_all!N22)</f>
-        <v/>
-      </c>
-      <c r="Q24" s="62" t="str">
-        <f>IF(_auto_shift_all!O22="","",_auto_shift_all!O22)</f>
-        <v/>
-      </c>
-      <c r="R24" s="62" t="str">
-        <f>IF(_auto_shift_all!P22="","",_auto_shift_all!P22)</f>
-        <v/>
-      </c>
-      <c r="S24" s="62" t="str">
-        <f>IF(_auto_shift_all!Q22="","",_auto_shift_all!Q22)</f>
-        <v/>
-      </c>
-      <c r="T24" s="62" t="str">
-        <f>IF(_auto_shift_all!R22="","",_auto_shift_all!R22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="63" t="s">
+      <c r="C25" s="61" t="str">
+        <f>IF(_auto_shift_all!A24="","",_auto_shift_all!A24)</f>
+        <v/>
+      </c>
+      <c r="D25" s="61" t="str">
+        <f>IF(_auto_shift_all!B24="","",_auto_shift_all!B24)</f>
+        <v/>
+      </c>
+      <c r="E25" s="61" t="str">
+        <f>IF(_auto_shift_all!C24="","",_auto_shift_all!C24)</f>
+        <v/>
+      </c>
+      <c r="F25" s="61" t="str">
+        <f>IF(_auto_shift_all!D24="","",_auto_shift_all!D24)</f>
+        <v/>
+      </c>
+      <c r="G25" s="61" t="str">
+        <f>IF(_auto_shift_all!E24="","",_auto_shift_all!E24)</f>
+        <v/>
+      </c>
+      <c r="H25" s="61" t="str">
+        <f>IF(_auto_shift_all!F24="","",_auto_shift_all!F24)</f>
+        <v/>
+      </c>
+      <c r="I25" s="61" t="str">
+        <f>IF(_auto_shift_all!G24="","",_auto_shift_all!G24)</f>
+        <v/>
+      </c>
+      <c r="J25" s="61" t="str">
+        <f>IF(_auto_shift_all!H24="","",_auto_shift_all!H24)</f>
+        <v/>
+      </c>
+      <c r="K25" s="61" t="str">
+        <f>IF(_auto_shift_all!I24="","",_auto_shift_all!I24)</f>
+        <v/>
+      </c>
+      <c r="L25" s="61" t="str">
+        <f>IF(_auto_shift_all!J24="","",_auto_shift_all!J24)</f>
+        <v/>
+      </c>
+      <c r="M25" s="61" t="str">
+        <f>IF(_auto_shift_all!K24="","",_auto_shift_all!K24)</f>
+        <v/>
+      </c>
+      <c r="N25" s="61" t="str">
+        <f>IF(_auto_shift_all!L24="","",_auto_shift_all!L24)</f>
+        <v/>
+      </c>
+      <c r="O25" s="61" t="str">
+        <f>IF(_auto_shift_all!M24="","",_auto_shift_all!M24)</f>
+        <v/>
+      </c>
+      <c r="P25" s="61" t="str">
+        <f>IF(_auto_shift_all!N24="","",_auto_shift_all!N24)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="61" t="str">
+        <f>IF(_auto_shift_all!O24="","",_auto_shift_all!O24)</f>
+        <v/>
+      </c>
+      <c r="R25" s="61" t="str">
+        <f>IF(_auto_shift_all!P24="","",_auto_shift_all!P24)</f>
+        <v/>
+      </c>
+      <c r="S25" s="61" t="str">
+        <f>IF(_auto_shift_all!Q24="","",_auto_shift_all!Q24)</f>
+        <v/>
+      </c>
+      <c r="T25" s="61" t="str">
+        <f>IF(_auto_shift_all!R24="","",_auto_shift_all!R24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B26" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="62" t="str">
-        <f>IF(_auto_shift_all!A24="","",_auto_shift_all!A24)</f>
-        <v/>
-      </c>
-      <c r="D25" s="62" t="str">
-        <f>IF(_auto_shift_all!B24="","",_auto_shift_all!B24)</f>
-        <v/>
-      </c>
-      <c r="E25" s="62" t="str">
-        <f>IF(_auto_shift_all!C24="","",_auto_shift_all!C24)</f>
-        <v/>
-      </c>
-      <c r="F25" s="62" t="str">
-        <f>IF(_auto_shift_all!D24="","",_auto_shift_all!D24)</f>
-        <v/>
-      </c>
-      <c r="G25" s="62" t="str">
-        <f>IF(_auto_shift_all!E24="","",_auto_shift_all!E24)</f>
-        <v/>
-      </c>
-      <c r="H25" s="62" t="str">
-        <f>IF(_auto_shift_all!F24="","",_auto_shift_all!F24)</f>
-        <v/>
-      </c>
-      <c r="I25" s="62" t="str">
-        <f>IF(_auto_shift_all!G24="","",_auto_shift_all!G24)</f>
-        <v/>
-      </c>
-      <c r="J25" s="62" t="str">
-        <f>IF(_auto_shift_all!H24="","",_auto_shift_all!H24)</f>
-        <v/>
-      </c>
-      <c r="K25" s="62" t="str">
-        <f>IF(_auto_shift_all!I24="","",_auto_shift_all!I24)</f>
-        <v/>
-      </c>
-      <c r="L25" s="62" t="str">
-        <f>IF(_auto_shift_all!J24="","",_auto_shift_all!J24)</f>
-        <v/>
-      </c>
-      <c r="M25" s="62" t="str">
-        <f>IF(_auto_shift_all!K24="","",_auto_shift_all!K24)</f>
-        <v/>
-      </c>
-      <c r="N25" s="62" t="str">
-        <f>IF(_auto_shift_all!L24="","",_auto_shift_all!L24)</f>
-        <v/>
-      </c>
-      <c r="O25" s="62" t="str">
-        <f>IF(_auto_shift_all!M24="","",_auto_shift_all!M24)</f>
-        <v/>
-      </c>
-      <c r="P25" s="62" t="str">
-        <f>IF(_auto_shift_all!N24="","",_auto_shift_all!N24)</f>
-        <v/>
-      </c>
-      <c r="Q25" s="62" t="str">
-        <f>IF(_auto_shift_all!O24="","",_auto_shift_all!O24)</f>
-        <v/>
-      </c>
-      <c r="R25" s="62" t="str">
-        <f>IF(_auto_shift_all!P24="","",_auto_shift_all!P24)</f>
-        <v/>
-      </c>
-      <c r="S25" s="62" t="str">
-        <f>IF(_auto_shift_all!Q24="","",_auto_shift_all!Q24)</f>
-        <v/>
-      </c>
-      <c r="T25" s="62" t="str">
-        <f>IF(_auto_shift_all!R24="","",_auto_shift_all!R24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B26" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="69">
+      <c r="C26" s="68">
         <f>SUM(D25:I25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="69">
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="68">
         <f>SUM(J25:O25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="69">
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="68">
         <f>SUM(P25:U25)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="71"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="70"/>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="77" t="str">
+        <f>IF(_auto_shift_all!A26="","",_auto_shift_all!A26)</f>
+        <v/>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="78" t="str">
-        <f>IF(_auto_shift_all!A26="","",_auto_shift_all!A26)</f>
-        <v/>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="89" t="s">
+      <c r="J27" s="88"/>
+      <c r="K27" s="78" t="str">
+        <f>IF(_auto_shift_all!B26="","",_auto_shift_all!B26)</f>
+        <v/>
+      </c>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="79"/>
+    </row>
+    <row r="28" ht="77.45" customHeight="1" spans="2:20">
+      <c r="B28" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="79" t="str">
-        <f>IF(_auto_shift_all!B26="","",_auto_shift_all!B26)</f>
-        <v/>
-      </c>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="80"/>
-    </row>
-    <row r="28" ht="77.45" customHeight="1" spans="2:20">
-      <c r="B28" s="81" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="97"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" spans="2:20">
+      <c r="B29" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="99"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1" spans="2:20">
-      <c r="B29" s="83" t="s">
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="100"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="98"/>
     </row>
     <row r="37" ht="18.75" customHeight="1"/>
     <row r="46" ht="117" customHeight="1"/>
@@ -4680,10 +4725,7 @@
     <row r="57" ht="18.75" customHeight="1"/>
     <row r="66" ht="135.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
+  <mergeCells count="32">
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="O3:T3"/>
@@ -4752,7 +4794,7 @@
   <sheetData>
     <row r="1" ht="26.1" customHeight="1" spans="2:15">
       <c r="B1" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -4780,7 +4822,7 @@
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
@@ -4788,22 +4830,22 @@
     </row>
     <row r="3" ht="26.25" customHeight="1" spans="2:15">
       <c r="B3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="28" t="s">
         <v>87</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>88</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
@@ -4812,10 +4854,10 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>89</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1" spans="2:15">
@@ -4825,25 +4867,25 @@
       <c r="E4" s="30"/>
       <c r="F4" s="31"/>
       <c r="G4" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="K4" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="L4" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="M4" s="32" t="s">
         <v>96</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>97</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="48"/>
@@ -10409,46 +10451,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -10462,7 +10504,7 @@
   <sheetPr/>
   <dimension ref="B2:V17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
@@ -10493,19 +10535,19 @@
   <sheetData>
     <row r="2" ht="19.5" spans="2:22">
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="L2" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -10513,7 +10555,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="16"/>
       <c r="S2" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -10521,45 +10563,45 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E3" s="7"/>
       <c r="G3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="J3" s="7"/>
       <c r="L3" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="S3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="V3" s="7"/>
     </row>
@@ -10567,125 +10609,125 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="S5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="N6" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O6" s="13">
         <v>43240</v>
@@ -10693,59 +10735,59 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="S6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" ht="18" spans="2:22">
       <c r="B7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="S7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -10753,171 +10795,171 @@
     </row>
     <row r="8" ht="18" spans="12:17">
       <c r="L8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" ht="18" spans="12:17">
       <c r="L9" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="12:17">
       <c r="L10" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="12:17">
       <c r="L11" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="N11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="O11" s="11" t="s">
+      <c r="P11" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="Q11" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" ht="27" spans="12:17">
       <c r="L12" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="N12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="O12" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="P12" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="13" ht="18" spans="12:17">
       <c r="L13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="N13" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="O13" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
     <row r="14" ht="18" spans="12:17">
       <c r="L14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="N14" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
     <row r="15" ht="18" spans="12:17">
       <c r="L15" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="N15" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="12:17">
       <c r="L16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="O16" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="12:17">
       <c r="L17" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
@@ -10955,7 +10997,7 @@
   <sheetPr/>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -10971,682 +11013,682 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>213</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>215</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>216</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>217</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>218</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>219</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>220</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>221</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>222</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>223</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>224</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>225</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>226</v>
-      </c>
-      <c r="R1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
         <v>228</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>229</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>230</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>231</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>232</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>233</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>234</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>235</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>236</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>237</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>238</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>239</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>240</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>242</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>243</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>244</v>
-      </c>
-      <c r="R3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
         <v>246</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>247</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>248</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>249</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>250</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>251</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>252</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>253</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>254</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>255</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>256</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>257</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>258</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>259</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>260</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>261</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>262</v>
-      </c>
-      <c r="R5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
         <v>264</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>265</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>266</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>267</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>268</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>269</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>270</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>271</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>272</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>273</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>274</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>275</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>276</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>277</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>278</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>279</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>280</v>
-      </c>
-      <c r="R7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
         <v>282</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>283</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>284</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>285</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>286</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>287</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>288</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>289</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>290</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>291</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>292</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>293</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>294</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>295</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>296</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>297</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>298</v>
-      </c>
-      <c r="R9" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" t="s">
         <v>300</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>301</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>302</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>303</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>304</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>305</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>306</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>307</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>308</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>309</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>310</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>311</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>312</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>313</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>314</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>315</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>316</v>
-      </c>
-      <c r="R11" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" t="s">
         <v>318</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>319</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>320</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>321</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>322</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>323</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>324</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>326</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>327</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>328</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>329</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>330</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>331</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>332</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>333</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>334</v>
-      </c>
-      <c r="R13" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" t="s">
         <v>336</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>337</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>338</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>339</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>340</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>341</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>342</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>343</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>344</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>345</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>346</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>347</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>348</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>349</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>350</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>351</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>352</v>
-      </c>
-      <c r="R15" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" t="s">
         <v>354</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>355</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>356</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>357</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>358</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>359</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>360</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>361</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>362</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>363</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>364</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>365</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>366</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>367</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>368</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>369</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>370</v>
-      </c>
-      <c r="R17" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" t="s">
         <v>372</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>373</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>374</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>375</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>376</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>377</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>378</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>379</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>380</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>381</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>382</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>383</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>384</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>385</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>386</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>387</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>388</v>
-      </c>
-      <c r="R19" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" t="s">
         <v>390</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>391</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>392</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>393</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>394</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>395</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>396</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>397</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>398</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>399</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>400</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>401</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>402</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>403</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>404</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>405</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>406</v>
-      </c>
-      <c r="R21" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23" t="s">
         <v>408</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>409</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>410</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>411</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>412</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>413</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>414</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>415</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>416</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>417</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>418</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>419</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>420</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>421</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>422</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>423</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>424</v>
-      </c>
-      <c r="R23" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" t="s">
         <v>426</v>
-      </c>
-      <c r="B25" t="s">
-        <v>427</v>
       </c>
     </row>
   </sheetData>
